--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.88106050263219</v>
+        <v>17.88106050263222</v>
       </c>
       <c r="C2">
-        <v>13.69044550551776</v>
+        <v>13.69044550551773</v>
       </c>
       <c r="D2">
-        <v>4.72133469582939</v>
+        <v>4.721334695829426</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.01885757438211</v>
+        <v>39.01885757438195</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>26.59285576475696</v>
+        <v>26.59285576475682</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.34418354441216</v>
+        <v>16.34418354441214</v>
       </c>
       <c r="K2">
-        <v>12.97821722119591</v>
+        <v>12.97821722119593</v>
       </c>
       <c r="L2">
-        <v>16.09348686737229</v>
+        <v>16.09348686737227</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62009982345517</v>
+        <v>16.62009982345525</v>
       </c>
       <c r="C3">
-        <v>12.73436794898457</v>
+        <v>12.73436794898473</v>
       </c>
       <c r="D3">
-        <v>4.727553423741869</v>
+        <v>4.727553423741659</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.99930486674876</v>
+        <v>36.99930486674871</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.57104683099122</v>
+        <v>25.57104683099111</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.23426517999709</v>
+        <v>15.23426517999721</v>
       </c>
       <c r="K3">
-        <v>12.24533873273186</v>
+        <v>12.2453387327319</v>
       </c>
       <c r="L3">
-        <v>14.96308716985089</v>
+        <v>14.96308716985092</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80653719094026</v>
+        <v>15.80653719094025</v>
       </c>
       <c r="C4">
-        <v>12.11877032369482</v>
+        <v>12.11877032369483</v>
       </c>
       <c r="D4">
-        <v>4.733004747383974</v>
+        <v>4.733004747383996</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.74134799883014</v>
+        <v>35.74134799883016</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.94652765851018</v>
+        <v>24.94652765851019</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.51921332749114</v>
+        <v>14.51921332749117</v>
       </c>
       <c r="K4">
-        <v>11.78716771699295</v>
+        <v>11.78716771699294</v>
       </c>
       <c r="L4">
-        <v>14.23556706289094</v>
+        <v>14.23556706289096</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.46494552233292</v>
+        <v>15.46494552233284</v>
       </c>
       <c r="C5">
-        <v>11.86059473286328</v>
+        <v>11.8605947328633</v>
       </c>
       <c r="D5">
-        <v>4.735603936722456</v>
+        <v>4.735603936722448</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.22460403453106</v>
+        <v>35.22460403453099</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.69289957740238</v>
+        <v>24.69289957740241</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.21925530205943</v>
+        <v>14.21925530205937</v>
       </c>
       <c r="K5">
         <v>11.59853137815889</v>
       </c>
       <c r="L5">
-        <v>13.93052624757412</v>
+        <v>13.93052624757408</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.40761224876911</v>
+        <v>15.40761224876921</v>
       </c>
       <c r="C6">
-        <v>11.81727943999789</v>
+        <v>11.81727943999787</v>
       </c>
       <c r="D6">
-        <v>4.73605743822193</v>
+        <v>4.736057438221761</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.13856429521399</v>
+        <v>35.138564295214</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.65084216824063</v>
+        <v>24.65084216824057</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.16892645842526</v>
+        <v>14.16892645842533</v>
       </c>
       <c r="K6">
         <v>11.56709672517591</v>
       </c>
       <c r="L6">
-        <v>13.87935242179022</v>
+        <v>13.87935242179028</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.8019713079541</v>
+        <v>15.80197130795421</v>
       </c>
       <c r="C7">
-        <v>12.11531826065196</v>
+        <v>12.11531826065204</v>
       </c>
       <c r="D7">
-        <v>4.733038312867351</v>
+        <v>4.733038312867127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.73439506801544</v>
+        <v>35.73439506801532</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.94310340835989</v>
+        <v>24.94310340835974</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.51520284412548</v>
+        <v>14.5152028441256</v>
       </c>
       <c r="K7">
-        <v>11.78463130164824</v>
+        <v>11.78463130164825</v>
       </c>
       <c r="L7">
-        <v>14.23148807812412</v>
+        <v>14.23148807812416</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.45433842201997</v>
+        <v>17.45433842201991</v>
       </c>
       <c r="C8">
-        <v>13.36663459746904</v>
+        <v>13.36663459746896</v>
       </c>
       <c r="D8">
-        <v>4.723119223385114</v>
+        <v>4.723119223385246</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.32644069786726</v>
+        <v>38.32644069786735</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.24001523831556</v>
+        <v>26.24001523831564</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.96836529761224</v>
+        <v>15.96836529761217</v>
       </c>
       <c r="K8">
-        <v>12.72728111412635</v>
+        <v>12.72728111412634</v>
       </c>
       <c r="L8">
-        <v>15.71056739459885</v>
+        <v>15.71056739459882</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.39084302082156</v>
+        <v>20.39084302082152</v>
       </c>
       <c r="C9">
-        <v>15.60047301517901</v>
+        <v>15.60047301517893</v>
       </c>
       <c r="D9">
-        <v>4.718280552531621</v>
+        <v>4.718280552531582</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.25601949563065</v>
+        <v>43.25601949563053</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.8018548737514</v>
+        <v>28.80185487375132</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.55846850154469</v>
+        <v>18.55846850154463</v>
       </c>
       <c r="K9">
-        <v>14.50779056078102</v>
+        <v>14.50779056078101</v>
       </c>
       <c r="L9">
-        <v>18.35359317081849</v>
+        <v>18.35359317081847</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37574434122971</v>
+        <v>22.37574434122973</v>
       </c>
       <c r="C10">
-        <v>17.11792973229648</v>
+        <v>17.11792973229655</v>
       </c>
       <c r="D10">
-        <v>4.726243682244958</v>
+        <v>4.726243682244993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.77879059882741</v>
+        <v>46.77879059882759</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.6935723286877</v>
+        <v>30.69357232868786</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.31388220648565</v>
+        <v>20.3138822064857</v>
       </c>
       <c r="K10">
-        <v>15.97195713988372</v>
+        <v>15.97195713988369</v>
       </c>
       <c r="L10">
         <v>20.15090632667657</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.24444373174853</v>
+        <v>23.2444437317484</v>
       </c>
       <c r="C11">
-        <v>17.78405429668249</v>
+        <v>17.78405429668246</v>
       </c>
       <c r="D11">
-        <v>4.733051321311246</v>
+        <v>4.733051321311396</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.36141961987057</v>
+        <v>48.36141961987049</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.55709903584147</v>
+        <v>31.55709903584145</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.08321427258426</v>
+        <v>21.08321427258418</v>
       </c>
       <c r="K11">
-        <v>16.62916680227892</v>
+        <v>16.62916680227891</v>
       </c>
       <c r="L11">
-        <v>20.94036046433249</v>
+        <v>20.94036046433241</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56877503780603</v>
+        <v>23.56877503780602</v>
       </c>
       <c r="C12">
-        <v>18.03307769953992</v>
+        <v>18.03307769953994</v>
       </c>
       <c r="D12">
-        <v>4.736154319349851</v>
+        <v>4.736154319349803</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.95816195062407</v>
+        <v>48.95816195062409</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.88468612810766</v>
+        <v>31.88468612810767</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>21.37060760062496</v>
       </c>
       <c r="K12">
-        <v>16.87527508492873</v>
+        <v>16.87527508492869</v>
       </c>
       <c r="L12">
-        <v>21.23556384136795</v>
+        <v>21.23556384136792</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49912509444808</v>
+        <v>23.4991250944481</v>
       </c>
       <c r="C13">
-        <v>17.97958502627583</v>
+        <v>17.97958502627582</v>
       </c>
       <c r="D13">
-        <v>4.735461507132407</v>
+        <v>4.735461507132362</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.8297506112318</v>
+        <v>48.8297506112317</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.81410478505946</v>
+        <v>31.81410478505938</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.3088827469548</v>
+        <v>21.30888274695479</v>
       </c>
       <c r="K13">
-        <v>16.82238929836717</v>
+        <v>16.82238929836715</v>
       </c>
       <c r="L13">
         <v>21.17214784589607</v>
@@ -871,34 +871,34 @@
         <v>23.27121754093059</v>
       </c>
       <c r="C14">
-        <v>17.80460463585011</v>
+        <v>17.80460463585013</v>
       </c>
       <c r="D14">
-        <v>4.733295664425604</v>
+        <v>4.733295664425603</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.4105631597653</v>
+        <v>48.41056315976502</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.5840368210621</v>
+        <v>31.58403682106189</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.10693553004085</v>
+        <v>21.10693553004082</v>
       </c>
       <c r="K14">
-        <v>16.64946792016286</v>
+        <v>16.64946792016283</v>
       </c>
       <c r="L14">
-        <v>20.96472021515128</v>
+        <v>20.96472021515123</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.13102458153207</v>
+        <v>23.13102458153186</v>
       </c>
       <c r="C15">
-        <v>17.69701238063189</v>
+        <v>17.69701238063173</v>
       </c>
       <c r="D15">
-        <v>4.732039560910122</v>
+        <v>4.732039560910086</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.15347598542131</v>
+        <v>48.15347598542095</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.44319632061101</v>
+        <v>31.44319632061083</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.98273292755917</v>
+        <v>20.98273292755892</v>
       </c>
       <c r="K15">
-        <v>16.54319768663223</v>
+        <v>16.5431976866322</v>
       </c>
       <c r="L15">
-        <v>20.83718666808056</v>
+        <v>20.83718666808046</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.31830836348498</v>
+        <v>22.31830836348489</v>
       </c>
       <c r="C16">
-        <v>17.07393132339103</v>
+        <v>17.0739313233909</v>
       </c>
       <c r="D16">
-        <v>4.725868399987316</v>
+        <v>4.725868399987364</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.67498373599624</v>
+        <v>46.67498373599616</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.63721057533526</v>
+        <v>30.63721057533525</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.26303851817185</v>
+        <v>20.26303851817175</v>
       </c>
       <c r="K16">
-        <v>15.92860437043005</v>
+        <v>15.92860437043007</v>
       </c>
       <c r="L16">
-        <v>20.0987720953482</v>
+        <v>20.09877209534821</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81116351124085</v>
+        <v>21.81116351124089</v>
       </c>
       <c r="C17">
-        <v>16.68566921439333</v>
+        <v>16.68566921439336</v>
       </c>
       <c r="D17">
-        <v>4.722943205173473</v>
+        <v>4.722943205173469</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.76304617824058</v>
+        <v>45.76304617824064</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.14361548746012</v>
+        <v>30.14361548746017</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.81422431853989</v>
+        <v>19.81422431853995</v>
       </c>
       <c r="K17">
-        <v>15.54634211785793</v>
+        <v>15.5463421178579</v>
       </c>
       <c r="L17">
-        <v>19.63877107686219</v>
+        <v>19.63877107686217</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51622434526737</v>
+        <v>21.51622434526739</v>
       </c>
       <c r="C18">
-        <v>16.46005878340592</v>
+        <v>16.46005878340615</v>
       </c>
       <c r="D18">
-        <v>4.721555981267029</v>
+        <v>4.721555981266786</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.2366246365216</v>
+        <v>45.23662463652141</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.85997840576914</v>
+        <v>29.85997840576896</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.55331063201274</v>
+        <v>19.55331063201281</v>
       </c>
       <c r="K18">
-        <v>15.32446641033866</v>
+        <v>15.32446641033872</v>
       </c>
       <c r="L18">
-        <v>19.37152050565981</v>
+        <v>19.37152050565987</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41579756657815</v>
+        <v>21.41579756657794</v>
       </c>
       <c r="C19">
-        <v>16.38327009266908</v>
+        <v>16.383270092669</v>
       </c>
       <c r="D19">
-        <v>4.721135111713216</v>
+        <v>4.72113511171333</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.05805446717344</v>
+        <v>45.0580544671732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.76398581891306</v>
+        <v>29.76398581891297</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.46448689609987</v>
+        <v>19.46448689609969</v>
       </c>
       <c r="K19">
-        <v>15.24899029705314</v>
+        <v>15.24899029705315</v>
       </c>
       <c r="L19">
-        <v>19.28056687393494</v>
+        <v>19.28056687393483</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,28 +1099,28 @@
         <v>21.86548353090283</v>
       </c>
       <c r="C20">
-        <v>16.72723590227525</v>
+        <v>16.72723590227514</v>
       </c>
       <c r="D20">
-        <v>4.723223581886262</v>
+        <v>4.723223581886274</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.86031835626523</v>
+        <v>45.86031835626525</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.19613111602846</v>
+        <v>30.19613111602848</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.8622859892561</v>
+        <v>19.86228598925608</v>
       </c>
       <c r="K20">
         <v>15.58724057927278</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.33828250914603</v>
+        <v>23.33828250914604</v>
       </c>
       <c r="C21">
-        <v>17.85608591839822</v>
+        <v>17.85608591839836</v>
       </c>
       <c r="D21">
-        <v>4.73391699130846</v>
+        <v>4.733916991308403</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.53375520229132</v>
+        <v>48.5337552022913</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.65159570598047</v>
+        <v>31.65159570598048</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.1663568515355</v>
+        <v>21.16635685153556</v>
       </c>
       <c r="K21">
-        <v>16.70033169575299</v>
+        <v>16.70033169575302</v>
       </c>
       <c r="L21">
-        <v>21.02574578201705</v>
+        <v>21.02574578201708</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.27404311608733</v>
+        <v>24.27404311608738</v>
       </c>
       <c r="C22">
-        <v>18.57520888063148</v>
+        <v>18.57520888063161</v>
       </c>
       <c r="D22">
-        <v>4.744004852408668</v>
+        <v>4.744004852408682</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.26629420534662</v>
+        <v>50.26629420534663</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.6063902868967</v>
+        <v>32.60639028689669</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21.99585101298456</v>
+        <v>21.99585101298461</v>
       </c>
       <c r="K22">
         <v>17.4118560634556</v>
       </c>
       <c r="L22">
-        <v>21.87836963717004</v>
+        <v>21.87836963717006</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.77695351098058</v>
+        <v>23.77695351098048</v>
       </c>
       <c r="C23">
-        <v>18.19301271585529</v>
+        <v>18.19301271585507</v>
       </c>
       <c r="D23">
-        <v>4.738312422761609</v>
+        <v>4.73831242276152</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.34281479505844</v>
+        <v>49.3428147950583</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.09639735283546</v>
+        <v>32.0963973528354</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.55512234621415</v>
+        <v>21.55512234621402</v>
       </c>
       <c r="K23">
-        <v>17.03345884909477</v>
+        <v>17.03345884909474</v>
       </c>
       <c r="L23">
-        <v>21.42517920201227</v>
+        <v>21.42517920201219</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84093598384336</v>
+        <v>21.84093598384342</v>
       </c>
       <c r="C24">
-        <v>16.70845107611516</v>
+        <v>16.70845107611526</v>
       </c>
       <c r="D24">
-        <v>4.723095911197171</v>
+        <v>4.723095911197258</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.81634827979111</v>
+        <v>45.81634827979117</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.17238838370717</v>
+        <v>30.17238838370719</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.84056631177954</v>
+        <v>19.84056631177959</v>
       </c>
       <c r="K24">
-        <v>15.56875697135253</v>
+        <v>15.56875697135258</v>
       </c>
       <c r="L24">
-        <v>19.66575957906244</v>
+        <v>19.66575957906247</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.62773082608196</v>
+        <v>19.62773082608187</v>
       </c>
       <c r="C25">
-        <v>15.01871139958068</v>
+        <v>15.0187113995807</v>
       </c>
       <c r="D25">
-        <v>4.717775377085514</v>
+        <v>4.717775377085598</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28.10720813999515</v>
+        <v>28.10720813999519</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.88453874229257</v>
+        <v>17.88453874229251</v>
       </c>
       <c r="K25">
-        <v>14.03363343553837</v>
+        <v>14.03363343553834</v>
       </c>
       <c r="L25">
-        <v>17.66494594821544</v>
+        <v>17.66494594821537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.88106050263222</v>
+        <v>17.88106050263219</v>
       </c>
       <c r="C2">
-        <v>13.69044550551773</v>
+        <v>13.69044550551776</v>
       </c>
       <c r="D2">
-        <v>4.721334695829426</v>
+        <v>4.72133469582939</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.01885757438195</v>
+        <v>39.01885757438211</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>26.59285576475682</v>
+        <v>26.59285576475696</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.34418354441214</v>
+        <v>16.34418354441216</v>
       </c>
       <c r="K2">
-        <v>12.97821722119593</v>
+        <v>12.97821722119591</v>
       </c>
       <c r="L2">
-        <v>16.09348686737227</v>
+        <v>16.09348686737229</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62009982345525</v>
+        <v>16.62009982345517</v>
       </c>
       <c r="C3">
-        <v>12.73436794898473</v>
+        <v>12.73436794898457</v>
       </c>
       <c r="D3">
-        <v>4.727553423741659</v>
+        <v>4.727553423741869</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.99930486674871</v>
+        <v>36.99930486674876</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.57104683099111</v>
+        <v>25.57104683099122</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.23426517999721</v>
+        <v>15.23426517999709</v>
       </c>
       <c r="K3">
-        <v>12.2453387327319</v>
+        <v>12.24533873273186</v>
       </c>
       <c r="L3">
-        <v>14.96308716985092</v>
+        <v>14.96308716985089</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80653719094025</v>
+        <v>15.80653719094026</v>
       </c>
       <c r="C4">
-        <v>12.11877032369483</v>
+        <v>12.11877032369482</v>
       </c>
       <c r="D4">
-        <v>4.733004747383996</v>
+        <v>4.733004747383974</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.74134799883016</v>
+        <v>35.74134799883014</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.94652765851019</v>
+        <v>24.94652765851018</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.51921332749117</v>
+        <v>14.51921332749114</v>
       </c>
       <c r="K4">
-        <v>11.78716771699294</v>
+        <v>11.78716771699295</v>
       </c>
       <c r="L4">
-        <v>14.23556706289096</v>
+        <v>14.23556706289094</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.46494552233284</v>
+        <v>15.46494552233292</v>
       </c>
       <c r="C5">
-        <v>11.8605947328633</v>
+        <v>11.86059473286328</v>
       </c>
       <c r="D5">
-        <v>4.735603936722448</v>
+        <v>4.735603936722456</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.22460403453099</v>
+        <v>35.22460403453106</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.69289957740241</v>
+        <v>24.69289957740238</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.21925530205937</v>
+        <v>14.21925530205943</v>
       </c>
       <c r="K5">
         <v>11.59853137815889</v>
       </c>
       <c r="L5">
-        <v>13.93052624757408</v>
+        <v>13.93052624757412</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.40761224876921</v>
+        <v>15.40761224876911</v>
       </c>
       <c r="C6">
-        <v>11.81727943999787</v>
+        <v>11.81727943999789</v>
       </c>
       <c r="D6">
-        <v>4.736057438221761</v>
+        <v>4.73605743822193</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.138564295214</v>
+        <v>35.13856429521399</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.65084216824057</v>
+        <v>24.65084216824063</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.16892645842533</v>
+        <v>14.16892645842526</v>
       </c>
       <c r="K6">
         <v>11.56709672517591</v>
       </c>
       <c r="L6">
-        <v>13.87935242179028</v>
+        <v>13.87935242179022</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80197130795421</v>
+        <v>15.8019713079541</v>
       </c>
       <c r="C7">
-        <v>12.11531826065204</v>
+        <v>12.11531826065196</v>
       </c>
       <c r="D7">
-        <v>4.733038312867127</v>
+        <v>4.733038312867351</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.73439506801532</v>
+        <v>35.73439506801544</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.94310340835974</v>
+        <v>24.94310340835989</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.5152028441256</v>
+        <v>14.51520284412548</v>
       </c>
       <c r="K7">
-        <v>11.78463130164825</v>
+        <v>11.78463130164824</v>
       </c>
       <c r="L7">
-        <v>14.23148807812416</v>
+        <v>14.23148807812412</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.45433842201991</v>
+        <v>17.45433842201997</v>
       </c>
       <c r="C8">
-        <v>13.36663459746896</v>
+        <v>13.36663459746904</v>
       </c>
       <c r="D8">
-        <v>4.723119223385246</v>
+        <v>4.723119223385114</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.32644069786735</v>
+        <v>38.32644069786726</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.24001523831564</v>
+        <v>26.24001523831556</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.96836529761217</v>
+        <v>15.96836529761224</v>
       </c>
       <c r="K8">
-        <v>12.72728111412634</v>
+        <v>12.72728111412635</v>
       </c>
       <c r="L8">
-        <v>15.71056739459882</v>
+        <v>15.71056739459885</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.39084302082152</v>
+        <v>20.39084302082156</v>
       </c>
       <c r="C9">
-        <v>15.60047301517893</v>
+        <v>15.60047301517901</v>
       </c>
       <c r="D9">
-        <v>4.718280552531582</v>
+        <v>4.718280552531621</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.25601949563053</v>
+        <v>43.25601949563065</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.80185487375132</v>
+        <v>28.8018548737514</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.55846850154463</v>
+        <v>18.55846850154469</v>
       </c>
       <c r="K9">
-        <v>14.50779056078101</v>
+        <v>14.50779056078102</v>
       </c>
       <c r="L9">
-        <v>18.35359317081847</v>
+        <v>18.35359317081849</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37574434122973</v>
+        <v>22.37574434122971</v>
       </c>
       <c r="C10">
-        <v>17.11792973229655</v>
+        <v>17.11792973229648</v>
       </c>
       <c r="D10">
-        <v>4.726243682244993</v>
+        <v>4.726243682244958</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.77879059882759</v>
+        <v>46.77879059882741</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.69357232868786</v>
+        <v>30.6935723286877</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.3138822064857</v>
+        <v>20.31388220648565</v>
       </c>
       <c r="K10">
-        <v>15.97195713988369</v>
+        <v>15.97195713988372</v>
       </c>
       <c r="L10">
         <v>20.15090632667657</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.2444437317484</v>
+        <v>23.24444373174853</v>
       </c>
       <c r="C11">
-        <v>17.78405429668246</v>
+        <v>17.78405429668249</v>
       </c>
       <c r="D11">
-        <v>4.733051321311396</v>
+        <v>4.733051321311246</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.36141961987049</v>
+        <v>48.36141961987057</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.55709903584145</v>
+        <v>31.55709903584147</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.08321427258418</v>
+        <v>21.08321427258426</v>
       </c>
       <c r="K11">
-        <v>16.62916680227891</v>
+        <v>16.62916680227892</v>
       </c>
       <c r="L11">
-        <v>20.94036046433241</v>
+        <v>20.94036046433249</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56877503780602</v>
+        <v>23.56877503780603</v>
       </c>
       <c r="C12">
-        <v>18.03307769953994</v>
+        <v>18.03307769953992</v>
       </c>
       <c r="D12">
-        <v>4.736154319349803</v>
+        <v>4.736154319349851</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.95816195062409</v>
+        <v>48.95816195062407</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.88468612810767</v>
+        <v>31.88468612810766</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>21.37060760062496</v>
       </c>
       <c r="K12">
-        <v>16.87527508492869</v>
+        <v>16.87527508492873</v>
       </c>
       <c r="L12">
-        <v>21.23556384136792</v>
+        <v>21.23556384136795</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.4991250944481</v>
+        <v>23.49912509444808</v>
       </c>
       <c r="C13">
-        <v>17.97958502627582</v>
+        <v>17.97958502627583</v>
       </c>
       <c r="D13">
-        <v>4.735461507132362</v>
+        <v>4.735461507132407</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.8297506112317</v>
+        <v>48.8297506112318</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.81410478505938</v>
+        <v>31.81410478505946</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.30888274695479</v>
+        <v>21.3088827469548</v>
       </c>
       <c r="K13">
-        <v>16.82238929836715</v>
+        <v>16.82238929836717</v>
       </c>
       <c r="L13">
         <v>21.17214784589607</v>
@@ -871,34 +871,34 @@
         <v>23.27121754093059</v>
       </c>
       <c r="C14">
-        <v>17.80460463585013</v>
+        <v>17.80460463585011</v>
       </c>
       <c r="D14">
-        <v>4.733295664425603</v>
+        <v>4.733295664425604</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.41056315976502</v>
+        <v>48.4105631597653</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.58403682106189</v>
+        <v>31.5840368210621</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.10693553004082</v>
+        <v>21.10693553004085</v>
       </c>
       <c r="K14">
-        <v>16.64946792016283</v>
+        <v>16.64946792016286</v>
       </c>
       <c r="L14">
-        <v>20.96472021515123</v>
+        <v>20.96472021515128</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.13102458153186</v>
+        <v>23.13102458153207</v>
       </c>
       <c r="C15">
-        <v>17.69701238063173</v>
+        <v>17.69701238063189</v>
       </c>
       <c r="D15">
-        <v>4.732039560910086</v>
+        <v>4.732039560910122</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.15347598542095</v>
+        <v>48.15347598542131</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.44319632061083</v>
+        <v>31.44319632061101</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.98273292755892</v>
+        <v>20.98273292755917</v>
       </c>
       <c r="K15">
-        <v>16.5431976866322</v>
+        <v>16.54319768663223</v>
       </c>
       <c r="L15">
-        <v>20.83718666808046</v>
+        <v>20.83718666808056</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.31830836348489</v>
+        <v>22.31830836348498</v>
       </c>
       <c r="C16">
-        <v>17.0739313233909</v>
+        <v>17.07393132339103</v>
       </c>
       <c r="D16">
-        <v>4.725868399987364</v>
+        <v>4.725868399987316</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.67498373599616</v>
+        <v>46.67498373599624</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.63721057533525</v>
+        <v>30.63721057533526</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.26303851817175</v>
+        <v>20.26303851817185</v>
       </c>
       <c r="K16">
-        <v>15.92860437043007</v>
+        <v>15.92860437043005</v>
       </c>
       <c r="L16">
-        <v>20.09877209534821</v>
+        <v>20.0987720953482</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81116351124089</v>
+        <v>21.81116351124085</v>
       </c>
       <c r="C17">
-        <v>16.68566921439336</v>
+        <v>16.68566921439333</v>
       </c>
       <c r="D17">
-        <v>4.722943205173469</v>
+        <v>4.722943205173473</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.76304617824064</v>
+        <v>45.76304617824058</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.14361548746017</v>
+        <v>30.14361548746012</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.81422431853995</v>
+        <v>19.81422431853989</v>
       </c>
       <c r="K17">
-        <v>15.5463421178579</v>
+        <v>15.54634211785793</v>
       </c>
       <c r="L17">
-        <v>19.63877107686217</v>
+        <v>19.63877107686219</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51622434526739</v>
+        <v>21.51622434526737</v>
       </c>
       <c r="C18">
-        <v>16.46005878340615</v>
+        <v>16.46005878340592</v>
       </c>
       <c r="D18">
-        <v>4.721555981266786</v>
+        <v>4.721555981267029</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.23662463652141</v>
+        <v>45.2366246365216</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.85997840576896</v>
+        <v>29.85997840576914</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.55331063201281</v>
+        <v>19.55331063201274</v>
       </c>
       <c r="K18">
-        <v>15.32446641033872</v>
+        <v>15.32446641033866</v>
       </c>
       <c r="L18">
-        <v>19.37152050565987</v>
+        <v>19.37152050565981</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41579756657794</v>
+        <v>21.41579756657815</v>
       </c>
       <c r="C19">
-        <v>16.383270092669</v>
+        <v>16.38327009266908</v>
       </c>
       <c r="D19">
-        <v>4.72113511171333</v>
+        <v>4.721135111713216</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.0580544671732</v>
+        <v>45.05805446717344</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.76398581891297</v>
+        <v>29.76398581891306</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.46448689609969</v>
+        <v>19.46448689609987</v>
       </c>
       <c r="K19">
-        <v>15.24899029705315</v>
+        <v>15.24899029705314</v>
       </c>
       <c r="L19">
-        <v>19.28056687393483</v>
+        <v>19.28056687393494</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,28 +1099,28 @@
         <v>21.86548353090283</v>
       </c>
       <c r="C20">
-        <v>16.72723590227514</v>
+        <v>16.72723590227525</v>
       </c>
       <c r="D20">
-        <v>4.723223581886274</v>
+        <v>4.723223581886262</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.86031835626525</v>
+        <v>45.86031835626523</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.19613111602848</v>
+        <v>30.19613111602846</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.86228598925608</v>
+        <v>19.8622859892561</v>
       </c>
       <c r="K20">
         <v>15.58724057927278</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.33828250914604</v>
+        <v>23.33828250914603</v>
       </c>
       <c r="C21">
-        <v>17.85608591839836</v>
+        <v>17.85608591839822</v>
       </c>
       <c r="D21">
-        <v>4.733916991308403</v>
+        <v>4.73391699130846</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.5337552022913</v>
+        <v>48.53375520229132</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.65159570598048</v>
+        <v>31.65159570598047</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.16635685153556</v>
+        <v>21.1663568515355</v>
       </c>
       <c r="K21">
-        <v>16.70033169575302</v>
+        <v>16.70033169575299</v>
       </c>
       <c r="L21">
-        <v>21.02574578201708</v>
+        <v>21.02574578201705</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.27404311608738</v>
+        <v>24.27404311608733</v>
       </c>
       <c r="C22">
-        <v>18.57520888063161</v>
+        <v>18.57520888063148</v>
       </c>
       <c r="D22">
-        <v>4.744004852408682</v>
+        <v>4.744004852408668</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.26629420534663</v>
+        <v>50.26629420534662</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.60639028689669</v>
+        <v>32.6063902868967</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21.99585101298461</v>
+        <v>21.99585101298456</v>
       </c>
       <c r="K22">
         <v>17.4118560634556</v>
       </c>
       <c r="L22">
-        <v>21.87836963717006</v>
+        <v>21.87836963717004</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.77695351098048</v>
+        <v>23.77695351098058</v>
       </c>
       <c r="C23">
-        <v>18.19301271585507</v>
+        <v>18.19301271585529</v>
       </c>
       <c r="D23">
-        <v>4.73831242276152</v>
+        <v>4.738312422761609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.3428147950583</v>
+        <v>49.34281479505844</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.0963973528354</v>
+        <v>32.09639735283546</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.55512234621402</v>
+        <v>21.55512234621415</v>
       </c>
       <c r="K23">
-        <v>17.03345884909474</v>
+        <v>17.03345884909477</v>
       </c>
       <c r="L23">
-        <v>21.42517920201219</v>
+        <v>21.42517920201227</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84093598384342</v>
+        <v>21.84093598384336</v>
       </c>
       <c r="C24">
-        <v>16.70845107611526</v>
+        <v>16.70845107611516</v>
       </c>
       <c r="D24">
-        <v>4.723095911197258</v>
+        <v>4.723095911197171</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.81634827979117</v>
+        <v>45.81634827979111</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.17238838370719</v>
+        <v>30.17238838370717</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.84056631177959</v>
+        <v>19.84056631177954</v>
       </c>
       <c r="K24">
-        <v>15.56875697135258</v>
+        <v>15.56875697135253</v>
       </c>
       <c r="L24">
-        <v>19.66575957906247</v>
+        <v>19.66575957906244</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.62773082608187</v>
+        <v>19.62773082608196</v>
       </c>
       <c r="C25">
-        <v>15.0187113995807</v>
+        <v>15.01871139958068</v>
       </c>
       <c r="D25">
-        <v>4.717775377085598</v>
+        <v>4.717775377085514</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28.10720813999519</v>
+        <v>28.10720813999515</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.88453874229251</v>
+        <v>17.88453874229257</v>
       </c>
       <c r="K25">
-        <v>14.03363343553834</v>
+        <v>14.03363343553837</v>
       </c>
       <c r="L25">
-        <v>17.66494594821537</v>
+        <v>17.66494594821544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.88106050263219</v>
+        <v>17.77869517660853</v>
       </c>
       <c r="C2">
-        <v>13.69044550551776</v>
+        <v>13.54512446562239</v>
       </c>
       <c r="D2">
-        <v>4.72133469582939</v>
+        <v>4.843836355465135</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.01885757438211</v>
+        <v>39.16868040798183</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.071441570623222</v>
       </c>
       <c r="H2">
-        <v>26.59285576475696</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>26.7504378602254</v>
       </c>
       <c r="J2">
-        <v>16.34418354441216</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.97821722119591</v>
+        <v>16.21622694518145</v>
       </c>
       <c r="L2">
-        <v>16.09348686737229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.95085898010933</v>
+      </c>
+      <c r="M2">
+        <v>16.04802916591148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62009982345517</v>
+        <v>16.52081316492607</v>
       </c>
       <c r="C3">
-        <v>12.73436794898457</v>
+        <v>12.59106845338616</v>
       </c>
       <c r="D3">
-        <v>4.727553423741869</v>
+        <v>4.853034043549497</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.99930486674876</v>
+        <v>37.18241625386589</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.082358351860123</v>
       </c>
       <c r="H3">
-        <v>25.57104683099122</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.7491983495571</v>
       </c>
       <c r="J3">
-        <v>15.23426517999709</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.24533873273186</v>
+        <v>15.10747981210945</v>
       </c>
       <c r="L3">
-        <v>14.96308716985089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.21709715020361</v>
+      </c>
+      <c r="M3">
+        <v>14.9196479436418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80653719094026</v>
+        <v>15.7091639340623</v>
       </c>
       <c r="C4">
-        <v>12.11877032369482</v>
+        <v>11.9765814970206</v>
       </c>
       <c r="D4">
-        <v>4.733004747383974</v>
+        <v>4.860269853449363</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.74134799883014</v>
+        <v>35.94679392270818</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.089198124980546</v>
       </c>
       <c r="H4">
-        <v>24.94652765851018</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>25.13807514391954</v>
       </c>
       <c r="J4">
-        <v>14.51921332749114</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.78716771699295</v>
+        <v>14.39296862615896</v>
       </c>
       <c r="L4">
-        <v>14.23556706289094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.75820077686102</v>
+      </c>
+      <c r="M4">
+        <v>14.19335343136396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.46494552233292</v>
+        <v>15.36835843809276</v>
       </c>
       <c r="C5">
-        <v>11.86059473286328</v>
+        <v>11.71882246900696</v>
       </c>
       <c r="D5">
-        <v>4.735603936722456</v>
+        <v>4.863586947518278</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.22460403453106</v>
+        <v>35.43963012554364</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.092022712023089</v>
       </c>
       <c r="H5">
-        <v>24.69289957740238</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.89008988985906</v>
       </c>
       <c r="J5">
-        <v>14.21925530205943</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.59853137815889</v>
+        <v>14.09318234110371</v>
       </c>
       <c r="L5">
-        <v>13.93052624757412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.56922287426256</v>
+      </c>
+      <c r="M5">
+        <v>13.888809087004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.40761224876911</v>
+        <v>15.31115610851028</v>
       </c>
       <c r="C6">
-        <v>11.81727943999789</v>
+        <v>11.67557405109286</v>
       </c>
       <c r="D6">
-        <v>4.73605743822193</v>
+        <v>4.864159149820803</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.13856429521399</v>
+        <v>35.35521004157984</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.092494067619299</v>
       </c>
       <c r="H6">
-        <v>24.65084216824063</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.84898026182032</v>
       </c>
       <c r="J6">
-        <v>14.16892645842526</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.56709672517591</v>
+        <v>14.04287894721174</v>
       </c>
       <c r="L6">
-        <v>13.87935242179022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.53772873025773</v>
+      </c>
+      <c r="M6">
+        <v>13.8377175277003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.8019713079541</v>
+        <v>15.70460862700892</v>
       </c>
       <c r="C7">
-        <v>12.11531826065196</v>
+        <v>11.97313520297411</v>
       </c>
       <c r="D7">
-        <v>4.733038312867351</v>
+        <v>4.860313135986697</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.73439506801544</v>
+        <v>35.93996825604732</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.08923606354102</v>
       </c>
       <c r="H7">
-        <v>24.94310340835989</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>25.1347262641093</v>
       </c>
       <c r="J7">
-        <v>14.51520284412548</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>11.78463130164824</v>
+        <v>14.3889606614901</v>
       </c>
       <c r="L7">
-        <v>14.23148807812412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.75565994113831</v>
+      </c>
+      <c r="M7">
+        <v>14.18928115382087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.45433842201997</v>
+        <v>17.3530303333558</v>
       </c>
       <c r="C8">
-        <v>13.36663459746904</v>
+        <v>13.22203611998227</v>
       </c>
       <c r="D8">
-        <v>4.723119223385114</v>
+        <v>4.846658484421694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.32644069786726</v>
+        <v>38.48735073046823</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.07517911451533</v>
       </c>
       <c r="H8">
-        <v>26.24001523831556</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>26.40452618669664</v>
       </c>
       <c r="J8">
-        <v>15.96836529761224</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.72728111412635</v>
+        <v>15.84084772950297</v>
       </c>
       <c r="L8">
-        <v>15.71056739459885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.69965629882124</v>
+      </c>
+      <c r="M8">
+        <v>15.66580892943146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.39084302082156</v>
+        <v>20.28193155900302</v>
       </c>
       <c r="C9">
-        <v>15.60047301517901</v>
+        <v>15.45018584580663</v>
       </c>
       <c r="D9">
-        <v>4.718280552531621</v>
+        <v>4.834047167139645</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.25601949563065</v>
+        <v>43.34407532798521</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.04855293366656</v>
       </c>
       <c r="H9">
-        <v>28.8018548737514</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>28.91952623181002</v>
       </c>
       <c r="J9">
-        <v>18.55846850154469</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.50779056078102</v>
+        <v>18.42713775673985</v>
       </c>
       <c r="L9">
-        <v>18.35359317081849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.48134866799784</v>
+      </c>
+      <c r="M9">
+        <v>18.30367964442119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37574434122971</v>
+        <v>22.26122722118662</v>
       </c>
       <c r="C10">
-        <v>17.11792973229648</v>
+        <v>16.96292320040758</v>
       </c>
       <c r="D10">
-        <v>4.726243682244958</v>
+        <v>4.835886944530097</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.77879059882741</v>
+        <v>46.82164985163362</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.02933392871816</v>
       </c>
       <c r="H10">
-        <v>30.6935723286877</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30.7808249964545</v>
       </c>
       <c r="J10">
-        <v>20.31388220648565</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.97195713988372</v>
+        <v>20.17901506105402</v>
       </c>
       <c r="L10">
-        <v>20.15090632667657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15.96118722280151</v>
+      </c>
+      <c r="M10">
+        <v>20.09702286213682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.24444373174853</v>
+        <v>23.12733974148643</v>
       </c>
       <c r="C11">
-        <v>17.78405429668249</v>
+        <v>17.62677279199262</v>
       </c>
       <c r="D11">
-        <v>4.733051321311246</v>
+        <v>4.839784945433995</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.36141961987057</v>
+        <v>48.38533497707836</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.020605628458421</v>
       </c>
       <c r="H11">
-        <v>31.55709903584147</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.63135731668364</v>
       </c>
       <c r="J11">
-        <v>21.08321427258426</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>16.62916680227892</v>
+        <v>20.94657257902917</v>
       </c>
       <c r="L11">
-        <v>20.94036046433249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16.61734700341967</v>
+      </c>
+      <c r="M11">
+        <v>20.88460135894947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56877503780603</v>
+        <v>23.45068259074807</v>
       </c>
       <c r="C12">
-        <v>18.03307769953992</v>
+        <v>17.87491413395602</v>
       </c>
       <c r="D12">
-        <v>4.736154319349851</v>
+        <v>4.841765117162177</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.95816195062407</v>
+        <v>48.97511750984412</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.017296749618476</v>
       </c>
       <c r="H12">
-        <v>31.88468612810766</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.95413983067485</v>
       </c>
       <c r="J12">
-        <v>21.37060760062496</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16.87527508492873</v>
+        <v>21.23326827049041</v>
       </c>
       <c r="L12">
-        <v>21.23556384136795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>16.86304023669486</v>
+      </c>
+      <c r="M12">
+        <v>21.17908109528279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49912509444808</v>
+        <v>23.38124598937582</v>
       </c>
       <c r="C13">
-        <v>17.97958502627583</v>
+        <v>17.82161238901646</v>
       </c>
       <c r="D13">
-        <v>4.735461507132407</v>
+        <v>4.841315113961172</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.8297506112318</v>
+        <v>48.8481958952932</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.018009639131042</v>
       </c>
       <c r="H13">
-        <v>31.81410478505946</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.88458818314302</v>
       </c>
       <c r="J13">
-        <v>21.3088827469548</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>16.82238929836717</v>
+        <v>21.1716948464325</v>
       </c>
       <c r="L13">
-        <v>21.17214784589607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>16.81024466689043</v>
+      </c>
+      <c r="M13">
+        <v>21.11582160600278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.27121754093059</v>
+        <v>23.15403243082832</v>
       </c>
       <c r="C14">
-        <v>17.80460463585011</v>
+        <v>17.64725099195637</v>
       </c>
       <c r="D14">
-        <v>4.733295664425604</v>
+        <v>4.83993735329449</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.4105631597653</v>
+        <v>48.43390175842146</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.020333514246045</v>
       </c>
       <c r="H14">
-        <v>31.5840368210621</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.65789753735895</v>
       </c>
       <c r="J14">
-        <v>21.10693553004085</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>16.64946792016286</v>
+        <v>20.97023696976787</v>
       </c>
       <c r="L14">
-        <v>20.96472021515128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>16.63761434338745</v>
+      </c>
+      <c r="M14">
+        <v>20.90890186564507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.13102458153207</v>
+        <v>23.01426328879565</v>
       </c>
       <c r="C15">
-        <v>17.69701238063189</v>
+        <v>17.54003512647993</v>
       </c>
       <c r="D15">
-        <v>4.732039560910122</v>
+        <v>4.839161137316153</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.15347598542131</v>
+        <v>48.17983914192393</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.021756293483983</v>
       </c>
       <c r="H15">
-        <v>31.44319632061101</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.51914066928116</v>
       </c>
       <c r="J15">
-        <v>20.98273292755917</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>16.54319768663223</v>
+        <v>20.84633068980087</v>
       </c>
       <c r="L15">
-        <v>20.83718666808056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.53152002009082</v>
+      </c>
+      <c r="M15">
+        <v>20.78167756060793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.31830836348498</v>
+        <v>22.20395927363364</v>
       </c>
       <c r="C16">
-        <v>17.07393132339103</v>
+        <v>16.91907072737975</v>
       </c>
       <c r="D16">
-        <v>4.725868399987316</v>
+        <v>4.835699053464426</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.67498373599624</v>
+        <v>46.71911200045167</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.029904162591909</v>
       </c>
       <c r="H16">
-        <v>30.63721057533526</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30.72532904039735</v>
       </c>
       <c r="J16">
-        <v>20.26303851817185</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>15.92860437043005</v>
+        <v>20.12828387588185</v>
       </c>
       <c r="L16">
-        <v>20.0987720953482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15.91790078197522</v>
+      </c>
+      <c r="M16">
+        <v>20.04500953727051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81116351124085</v>
+        <v>21.6982825057129</v>
       </c>
       <c r="C17">
-        <v>16.68566921439333</v>
+        <v>16.53207309214973</v>
       </c>
       <c r="D17">
-        <v>4.722943205173473</v>
+        <v>4.834401851167156</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.76304617824058</v>
+        <v>45.81847416801747</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.034902491577215</v>
       </c>
       <c r="H17">
-        <v>30.14361548746012</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.23941545481627</v>
       </c>
       <c r="J17">
-        <v>19.81422431853989</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>15.54634211785793</v>
+        <v>19.68043698883834</v>
       </c>
       <c r="L17">
-        <v>19.63877107686219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.53620805053485</v>
+      </c>
+      <c r="M17">
+        <v>19.58605997789837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51622434526737</v>
+        <v>21.40418453402363</v>
       </c>
       <c r="C18">
-        <v>16.46005878340592</v>
+        <v>16.30717808352942</v>
       </c>
       <c r="D18">
-        <v>4.721555981267029</v>
+        <v>4.833939531811325</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.2366246365216</v>
+        <v>45.29870529692558</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.037779152912776</v>
       </c>
       <c r="H18">
-        <v>29.85997840576914</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>29.96027639676824</v>
       </c>
       <c r="J18">
-        <v>19.55331063201274</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>15.32446641033866</v>
+        <v>19.42006423643492</v>
       </c>
       <c r="L18">
-        <v>19.37152050565981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.3146504269926</v>
+      </c>
+      <c r="M18">
+        <v>19.31940786196332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41579756657815</v>
+        <v>21.30404211397469</v>
       </c>
       <c r="C19">
-        <v>16.38327009266908</v>
+        <v>16.23062963311735</v>
       </c>
       <c r="D19">
-        <v>4.721135111713216</v>
+        <v>4.833829939829203</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.05805446717344</v>
+        <v>45.12241448049583</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.03875360474427</v>
       </c>
       <c r="H19">
-        <v>29.76398581891306</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>29.86582059104252</v>
       </c>
       <c r="J19">
-        <v>19.46448689609987</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>15.24899029705314</v>
+        <v>19.33142103830767</v>
       </c>
       <c r="L19">
-        <v>19.28056687393494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.23928045124799</v>
+      </c>
+      <c r="M19">
+        <v>19.22865586156107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.86548353090283</v>
+        <v>21.75244660070194</v>
       </c>
       <c r="C20">
-        <v>16.72723590227525</v>
+        <v>16.57350641546472</v>
       </c>
       <c r="D20">
-        <v>4.723223581886262</v>
+        <v>4.834510134707517</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.86031835626523</v>
+        <v>45.91452772593862</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.034370268421418</v>
       </c>
       <c r="H20">
-        <v>30.19613111602846</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.29110514217896</v>
       </c>
       <c r="J20">
-        <v>19.8622859892561</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>15.58724057927278</v>
+        <v>19.7283972951165</v>
       </c>
       <c r="L20">
-        <v>19.68801325633836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15.57704688460002</v>
+      </c>
+      <c r="M20">
+        <v>19.63519090322483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.33828250914603</v>
+        <v>23.2208938290971</v>
       </c>
       <c r="C21">
-        <v>17.85608591839822</v>
+        <v>17.69855104199021</v>
       </c>
       <c r="D21">
-        <v>4.73391699130846</v>
+        <v>4.840327798400391</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.53375520229132</v>
+        <v>48.55565087076857</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.019651085068188</v>
       </c>
       <c r="H21">
-        <v>31.65159570598047</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.72446132378711</v>
       </c>
       <c r="J21">
-        <v>21.1663568515355</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>16.70033169575299</v>
+        <v>21.02951527606828</v>
       </c>
       <c r="L21">
-        <v>21.02574578201705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>16.68839312877764</v>
+      </c>
+      <c r="M21">
+        <v>20.96977864665202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.27404311608733</v>
+        <v>24.15375634819456</v>
       </c>
       <c r="C22">
-        <v>18.57520888063148</v>
+        <v>18.41506524425537</v>
       </c>
       <c r="D22">
-        <v>4.744004852408668</v>
+        <v>4.84710490512235</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.26629420534662</v>
+        <v>50.26830725989592</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.010006616447227</v>
       </c>
       <c r="H22">
-        <v>32.6063902868967</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.66547944864853</v>
       </c>
       <c r="J22">
-        <v>21.99585101298456</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.4118560634556</v>
+        <v>21.85692840864352</v>
       </c>
       <c r="L22">
-        <v>21.87836963717004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17.39867339479545</v>
+      </c>
+      <c r="M22">
+        <v>21.82026705047598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.77695351098058</v>
+        <v>23.65821985183524</v>
       </c>
       <c r="C23">
-        <v>18.19301271585529</v>
+        <v>18.03427355153739</v>
       </c>
       <c r="D23">
-        <v>4.738312422761609</v>
+        <v>4.843191982315839</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.34281479505844</v>
+        <v>49.3553331612118</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.015158427201893</v>
       </c>
       <c r="H23">
-        <v>32.09639735283546</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.16278005471933</v>
       </c>
       <c r="J23">
-        <v>21.55512234621415</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>17.03345884909477</v>
+        <v>21.41732513567804</v>
       </c>
       <c r="L23">
-        <v>21.42517920201227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>17.02095076561068</v>
+      </c>
+      <c r="M23">
+        <v>21.36822501287072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84093598384336</v>
+        <v>21.72796955573585</v>
       </c>
       <c r="C24">
-        <v>16.70845107611516</v>
+        <v>16.55478191922417</v>
       </c>
       <c r="D24">
-        <v>4.723095911197171</v>
+        <v>4.834460301525186</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.81634827979111</v>
+        <v>45.87110809937213</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.034610876570255</v>
       </c>
       <c r="H24">
-        <v>30.17238838370717</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.26773556265026</v>
       </c>
       <c r="J24">
-        <v>19.84056631177954</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>15.56875697135253</v>
+        <v>19.70672349168472</v>
       </c>
       <c r="L24">
-        <v>19.66575957906244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.5585902631107</v>
+      </c>
+      <c r="M24">
+        <v>19.61298754253111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.62773082608196</v>
+        <v>19.52087063703643</v>
       </c>
       <c r="C25">
-        <v>15.01871139958068</v>
+        <v>14.8700573771933</v>
       </c>
       <c r="D25">
-        <v>4.717775377085514</v>
+        <v>4.835706359187634</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.93989828178512</v>
+        <v>42.0461428512596</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.055677509647573</v>
       </c>
       <c r="H25">
-        <v>28.10720813999515</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>28.2368495814517</v>
       </c>
       <c r="J25">
-        <v>17.88453874229257</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>14.03363343553837</v>
+        <v>17.75436965469174</v>
       </c>
       <c r="L25">
-        <v>17.66494594821544</v>
+        <v>14.00702911298925</v>
+      </c>
+      <c r="M25">
+        <v>17.61645080831897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.77869517660853</v>
+        <v>18.14548230546026</v>
       </c>
       <c r="C2">
-        <v>13.54512446562239</v>
+        <v>11.72708131735229</v>
       </c>
       <c r="D2">
-        <v>4.843836355465135</v>
+        <v>3.324169906406337</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.16868040798183</v>
+        <v>27.97210366993848</v>
       </c>
       <c r="G2">
-        <v>2.071441570623222</v>
+        <v>2.059878681413485</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.7504378602254</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.21622694518145</v>
+        <v>15.789779435752</v>
       </c>
       <c r="L2">
-        <v>12.95085898010933</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.04802916591148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>30.03426829382303</v>
+      </c>
+      <c r="N2">
+        <v>11.98542364241545</v>
+      </c>
+      <c r="O2">
+        <v>21.46652713065443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.52081316492607</v>
+        <v>16.88446603088764</v>
       </c>
       <c r="C3">
-        <v>12.59106845338616</v>
+        <v>10.97545691399539</v>
       </c>
       <c r="D3">
-        <v>4.853034043549497</v>
+        <v>3.396093327178269</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.18241625386589</v>
+        <v>26.67212836850331</v>
       </c>
       <c r="G3">
-        <v>2.082358351860123</v>
+        <v>2.06862815441026</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.7491983495571</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.10747981210945</v>
+        <v>14.74478346535817</v>
       </c>
       <c r="L3">
-        <v>12.21709715020361</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.9196479436418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.71088807461669</v>
+      </c>
+      <c r="N3">
+        <v>12.2263430347165</v>
+      </c>
+      <c r="O3">
+        <v>20.65318357194226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.7091639340623</v>
+        <v>16.06795882489126</v>
       </c>
       <c r="C4">
-        <v>11.9765814970206</v>
+        <v>10.48992296252757</v>
       </c>
       <c r="D4">
-        <v>4.860269853449363</v>
+        <v>3.439802105549145</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.94679392270818</v>
+        <v>25.87411694819093</v>
       </c>
       <c r="G4">
-        <v>2.089198124980546</v>
+        <v>2.074116525741683</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.13807514391954</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.39296862615896</v>
+        <v>14.06902714341346</v>
       </c>
       <c r="L4">
-        <v>11.75820077686102</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.19335343136396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.23591174242332</v>
+      </c>
+      <c r="N4">
+        <v>12.37770364904183</v>
+      </c>
+      <c r="O4">
+        <v>20.1626919339657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.36835843809276</v>
+        <v>15.72448783847014</v>
       </c>
       <c r="C5">
-        <v>11.71882246900696</v>
+        <v>10.28599630683849</v>
       </c>
       <c r="D5">
-        <v>4.863586947518278</v>
+        <v>3.45754046212472</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.43963012554364</v>
+        <v>25.54927002794267</v>
       </c>
       <c r="G5">
-        <v>2.092022712023089</v>
+        <v>2.076384627792323</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.89008988985906</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.09318234110371</v>
+        <v>13.78500511260734</v>
       </c>
       <c r="L5">
-        <v>11.56922287426256</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.888809087004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.62174988930054</v>
+      </c>
+      <c r="N5">
+        <v>12.44026425160891</v>
+      </c>
+      <c r="O5">
+        <v>19.96517689023954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.31115610851028</v>
+        <v>15.66680289552705</v>
       </c>
       <c r="C6">
-        <v>11.67557405109286</v>
+        <v>10.25176747432706</v>
       </c>
       <c r="D6">
-        <v>4.864159149820803</v>
+        <v>3.460482564266067</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.35521004157984</v>
+        <v>25.49536071475663</v>
       </c>
       <c r="G6">
-        <v>2.092494067619299</v>
+        <v>2.076763213731062</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.84898026182032</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.04287894721174</v>
+        <v>13.73731958525269</v>
       </c>
       <c r="L6">
-        <v>11.53772873025773</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.8377175277003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.51895310543379</v>
+      </c>
+      <c r="N6">
+        <v>12.4507060155393</v>
+      </c>
+      <c r="O6">
+        <v>19.93252656418637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.70460862700892</v>
+        <v>16.06337028249633</v>
       </c>
       <c r="C7">
-        <v>11.97313520297411</v>
+        <v>10.4871973282896</v>
       </c>
       <c r="D7">
-        <v>4.860313135986697</v>
+        <v>3.440041578220428</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.93996825604732</v>
+        <v>25.86973408395893</v>
       </c>
       <c r="G7">
-        <v>2.08923606354102</v>
+        <v>2.074146983505966</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.1347262641093</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.3889606614901</v>
+        <v>14.06523180829836</v>
       </c>
       <c r="L7">
-        <v>11.75565994113831</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.18928115382087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.2276831004146</v>
+      </c>
+      <c r="N7">
+        <v>12.37854377881016</v>
+      </c>
+      <c r="O7">
+        <v>20.16001842149485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.3530303333558</v>
+        <v>17.71937863034814</v>
       </c>
       <c r="C8">
-        <v>13.22203611998227</v>
+        <v>11.47289154134263</v>
       </c>
       <c r="D8">
-        <v>4.846658484421694</v>
+        <v>3.34908902713862</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.48735073046823</v>
+        <v>27.52399574168525</v>
       </c>
       <c r="G8">
-        <v>2.07517911451533</v>
+        <v>2.062872874531066</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.40452618669664</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.84084772950297</v>
+        <v>15.43650507150476</v>
       </c>
       <c r="L8">
-        <v>12.69965629882124</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.66580892943146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.24261605529154</v>
+      </c>
+      <c r="N8">
+        <v>12.06778931681817</v>
+      </c>
+      <c r="O8">
+        <v>21.18430474633555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.28193155900302</v>
+        <v>20.63720645623067</v>
       </c>
       <c r="C9">
-        <v>15.45018584580663</v>
+        <v>13.21676037754912</v>
       </c>
       <c r="D9">
-        <v>4.834047167139645</v>
+        <v>3.164991445653357</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.34407532798521</v>
+        <v>30.76007824273793</v>
       </c>
       <c r="G9">
-        <v>2.04855293366656</v>
+        <v>2.041565819627762</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.91952623181002</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.42713775673985</v>
+        <v>17.85826552515013</v>
       </c>
       <c r="L9">
-        <v>14.48134866799784</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.30367964442119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.82095109132327</v>
+      </c>
+      <c r="N9">
+        <v>11.48493879461105</v>
+      </c>
+      <c r="O9">
+        <v>23.25986193296451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.26122722118662</v>
+        <v>22.58818927163365</v>
       </c>
       <c r="C10">
-        <v>16.96292320040758</v>
+        <v>14.38557627861272</v>
       </c>
       <c r="D10">
-        <v>4.835886944530097</v>
+        <v>3.022569196626773</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.82164985163362</v>
+        <v>33.12705388102956</v>
       </c>
       <c r="G10">
-        <v>2.02933392871816</v>
+        <v>2.026203241057713</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.7808249964545</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.17901506105402</v>
+        <v>19.48008641357177</v>
       </c>
       <c r="L10">
-        <v>15.96118722280151</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>20.09702286213682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38.80426531721721</v>
+      </c>
+      <c r="N10">
+        <v>11.07190082967554</v>
+      </c>
+      <c r="O10">
+        <v>24.8242305322815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.12733974148643</v>
+        <v>23.43584412717695</v>
       </c>
       <c r="C11">
-        <v>17.62677279199262</v>
+        <v>14.89364328727959</v>
       </c>
       <c r="D11">
-        <v>4.839784945433995</v>
+        <v>2.95513484234313</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.38533497707836</v>
+        <v>34.20253964862155</v>
       </c>
       <c r="G11">
-        <v>2.020605628458421</v>
+        <v>2.019222680267722</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.63135731668364</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.94657257902917</v>
+        <v>20.18509371602519</v>
       </c>
       <c r="L11">
-        <v>16.61734700341967</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.88460135894947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40.61894520358653</v>
+      </c>
+      <c r="N11">
+        <v>10.8870667864781</v>
+      </c>
+      <c r="O11">
+        <v>25.54551667756165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.45068259074807</v>
+        <v>23.75127305374079</v>
       </c>
       <c r="C12">
-        <v>17.87491413395602</v>
+        <v>15.08270217096673</v>
       </c>
       <c r="D12">
-        <v>4.841765117162177</v>
+        <v>2.929097807782584</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.97511750984412</v>
+        <v>34.60987041810649</v>
       </c>
       <c r="G12">
-        <v>2.017296749618476</v>
+        <v>2.016574649651487</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.95413983067485</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.23326827049041</v>
+        <v>20.44747557750092</v>
       </c>
       <c r="L12">
-        <v>16.86304023669486</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>21.17908109528279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41.30970586274007</v>
+      </c>
+      <c r="N12">
+        <v>10.81749225269449</v>
+      </c>
+      <c r="O12">
+        <v>25.82023914397855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.38124598937582</v>
+        <v>23.68358416041518</v>
       </c>
       <c r="C13">
-        <v>17.82161238901646</v>
+        <v>15.04213226975411</v>
       </c>
       <c r="D13">
-        <v>4.841315113961172</v>
+        <v>2.934729924050883</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.8481958952932</v>
+        <v>34.52213573152402</v>
       </c>
       <c r="G13">
-        <v>2.018009639131042</v>
+        <v>2.017145263845547</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.88458818314302</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.1716948464325</v>
+        <v>20.39116898992413</v>
       </c>
       <c r="L13">
-        <v>16.81024466689043</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>21.11582160600278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41.16071676021345</v>
+      </c>
+      <c r="N13">
+        <v>10.832458209179</v>
+      </c>
+      <c r="O13">
+        <v>25.76099773033066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.15403243082832</v>
+        <v>23.46190504046603</v>
       </c>
       <c r="C14">
-        <v>17.64725099195637</v>
+        <v>14.90926374924816</v>
       </c>
       <c r="D14">
-        <v>4.83993735329449</v>
+        <v>2.953003614245665</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.43390175842146</v>
+        <v>34.23604763786506</v>
       </c>
       <c r="G14">
-        <v>2.020333514246045</v>
+        <v>2.019004956252203</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.65789753735895</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.97023696976787</v>
+        <v>20.2067712635784</v>
       </c>
       <c r="L14">
-        <v>16.63761434338745</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.90890186564507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>40.67568072804931</v>
+      </c>
+      <c r="N14">
+        <v>10.8813346200255</v>
+      </c>
+      <c r="O14">
+        <v>25.56808489689902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.01426328879565</v>
+        <v>23.32540150689363</v>
       </c>
       <c r="C15">
-        <v>17.54003512647993</v>
+        <v>14.82744551766684</v>
       </c>
       <c r="D15">
-        <v>4.839161137316153</v>
+        <v>2.964127369997693</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.17983914192393</v>
+        <v>34.06082935647356</v>
       </c>
       <c r="G15">
-        <v>2.021756293483983</v>
+        <v>2.020143272194746</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.51914066928116</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.84633068980087</v>
+        <v>20.09322850882661</v>
       </c>
       <c r="L15">
-        <v>16.53152002009082</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.78167756060793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40.37916075376291</v>
+      </c>
+      <c r="N15">
+        <v>10.91132651184457</v>
+      </c>
+      <c r="O15">
+        <v>25.45013477942867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.20395927363364</v>
+        <v>22.53200536993712</v>
       </c>
       <c r="C16">
-        <v>16.91907072737975</v>
+        <v>14.3519027256084</v>
       </c>
       <c r="D16">
-        <v>4.835699053464426</v>
+        <v>3.026913356273685</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.71911200045167</v>
+        <v>33.05676071575409</v>
       </c>
       <c r="G16">
-        <v>2.029904162591909</v>
+        <v>2.026659131494185</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.72532904039735</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.12828387588185</v>
+        <v>19.43336343627042</v>
       </c>
       <c r="L16">
-        <v>15.91790078197522</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>20.04500953727051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>38.68597670096485</v>
+      </c>
+      <c r="N16">
+        <v>11.08404001123526</v>
+      </c>
+      <c r="O16">
+        <v>24.77730147963631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.6982825057129</v>
+        <v>22.0351920076994</v>
       </c>
       <c r="C17">
-        <v>16.53207309214973</v>
+        <v>14.05416406789099</v>
       </c>
       <c r="D17">
-        <v>4.834401851167156</v>
+        <v>3.064676597050894</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.81847416801747</v>
+        <v>32.44060312695456</v>
       </c>
       <c r="G17">
-        <v>2.034902491577215</v>
+        <v>2.030654706799623</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.23941545481627</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.68043698883834</v>
+        <v>19.0202493120528</v>
       </c>
       <c r="L17">
-        <v>15.53620805053485</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.58605997789837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.64992879204979</v>
+      </c>
+      <c r="N17">
+        <v>11.19076401000157</v>
+      </c>
+      <c r="O17">
+        <v>24.36711923686635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.40418453402363</v>
+        <v>21.74567548227203</v>
       </c>
       <c r="C18">
-        <v>16.30717808352942</v>
+        <v>13.88068418505717</v>
       </c>
       <c r="D18">
-        <v>4.833939531811325</v>
+        <v>3.086156749430693</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.29870529692558</v>
+        <v>32.0860632421069</v>
       </c>
       <c r="G18">
-        <v>2.037779152912776</v>
+        <v>2.0329540145962</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.96027639676824</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.42006423643492</v>
+        <v>18.7795448156496</v>
       </c>
       <c r="L18">
-        <v>15.3146504269926</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.31940786196332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37.05403329658436</v>
+      </c>
+      <c r="N18">
+        <v>11.25243828041054</v>
+      </c>
+      <c r="O18">
+        <v>24.13208347482524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.30404211397469</v>
+        <v>21.64699892376065</v>
       </c>
       <c r="C19">
-        <v>16.23062963311735</v>
+        <v>13.82156223321111</v>
       </c>
       <c r="D19">
-        <v>4.833829939829203</v>
+        <v>3.093391471854414</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.12241448049583</v>
+        <v>31.96599256913978</v>
       </c>
       <c r="G19">
-        <v>2.03875360474427</v>
+        <v>2.033732875832596</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.86582059104252</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.33142103830767</v>
+        <v>18.69751174784538</v>
       </c>
       <c r="L19">
-        <v>15.23928045124799</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>19.22865586156107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.85219298414119</v>
+      </c>
+      <c r="N19">
+        <v>11.27337040725228</v>
+      </c>
+      <c r="O19">
+        <v>24.05265297069613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.75244660070194</v>
+        <v>22.08846685599949</v>
       </c>
       <c r="C20">
-        <v>16.57350641546472</v>
+        <v>14.08608904142143</v>
       </c>
       <c r="D20">
-        <v>4.834510134707517</v>
+        <v>3.060682275528654</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.91452772593862</v>
+        <v>32.50620757233218</v>
       </c>
       <c r="G20">
-        <v>2.034370268421418</v>
+        <v>2.030229288940114</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.29110514217896</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.7283972951165</v>
+        <v>19.06454518697817</v>
       </c>
       <c r="L20">
-        <v>15.57704688460002</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.63519090322483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.7601965125765</v>
+      </c>
+      <c r="N20">
+        <v>11.1793732383717</v>
+      </c>
+      <c r="O20">
+        <v>24.4106906065247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.2208938290971</v>
+        <v>23.52716701449823</v>
       </c>
       <c r="C21">
-        <v>17.69855104199021</v>
+        <v>14.94838045815875</v>
       </c>
       <c r="D21">
-        <v>4.840327798400391</v>
+        <v>2.947650917814769</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.55565087076857</v>
+        <v>34.32007402183402</v>
       </c>
       <c r="G21">
-        <v>2.019651085068188</v>
+        <v>2.01845889841542</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.72446132378711</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.02951527606828</v>
+        <v>20.26105686486484</v>
       </c>
       <c r="L21">
-        <v>16.68839312877764</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.96977864665202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>40.81801975585351</v>
+      </c>
+      <c r="N21">
+        <v>10.86696729743699</v>
+      </c>
+      <c r="O21">
+        <v>25.62470283339489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.15375634819456</v>
+        <v>24.43512595342489</v>
       </c>
       <c r="C22">
-        <v>18.41506524425537</v>
+        <v>15.49252742231467</v>
       </c>
       <c r="D22">
-        <v>4.84710490512235</v>
+        <v>2.870774345828906</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.26830725989592</v>
+        <v>35.50617434402425</v>
       </c>
       <c r="G22">
-        <v>2.010006616447227</v>
+        <v>2.010735430110402</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.66547944864853</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.85692840864352</v>
+        <v>21.01636149169612</v>
       </c>
       <c r="L22">
-        <v>17.39867339479545</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.82026705047598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>42.83967961642045</v>
+      </c>
+      <c r="N22">
+        <v>10.66521186531488</v>
+      </c>
+      <c r="O22">
+        <v>26.42756313516783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.65821985183524</v>
+        <v>23.95342729584755</v>
       </c>
       <c r="C23">
-        <v>18.03427355153739</v>
+        <v>15.20386108260816</v>
       </c>
       <c r="D23">
-        <v>4.843191982315839</v>
+        <v>2.912129087285606</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.3553331612118</v>
+        <v>34.87294587636904</v>
       </c>
       <c r="G23">
-        <v>2.015158427201893</v>
+        <v>2.014862705344537</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.16278005471933</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.41732513567804</v>
+        <v>20.61563976618577</v>
       </c>
       <c r="L23">
-        <v>17.02095076561068</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.36822501287072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>41.75720887794248</v>
+      </c>
+      <c r="N23">
+        <v>10.77268068108008</v>
+      </c>
+      <c r="O23">
+        <v>25.9981005036768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72796955573585</v>
+        <v>22.06439343231018</v>
       </c>
       <c r="C24">
-        <v>16.55478191922417</v>
+        <v>14.07166294825975</v>
       </c>
       <c r="D24">
-        <v>4.834460301525186</v>
+        <v>3.062488817423179</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.87110809937213</v>
+        <v>32.47654876197178</v>
       </c>
       <c r="G24">
-        <v>2.034610876570255</v>
+        <v>2.030421613089005</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.26773556265026</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.70672349168472</v>
+        <v>19.04452899739849</v>
       </c>
       <c r="L24">
-        <v>15.5585902631107</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.61298754253111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.71034550555255</v>
+      </c>
+      <c r="N24">
+        <v>11.18452201663348</v>
+      </c>
+      <c r="O24">
+        <v>24.39098956342494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.52087063703643</v>
+        <v>19.88232900885537</v>
       </c>
       <c r="C25">
-        <v>14.8700573771933</v>
+        <v>12.76497205680436</v>
       </c>
       <c r="D25">
-        <v>4.835706359187634</v>
+        <v>3.215744911010163</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.0461428512596</v>
+        <v>29.88643430482072</v>
       </c>
       <c r="G25">
-        <v>2.055677509647573</v>
+        <v>2.04726259939508</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.2368495814517</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.75436965469174</v>
+        <v>17.23119976335683</v>
       </c>
       <c r="L25">
-        <v>14.00702911298925</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.61645080831897</v>
+        <v>33.33967279941413</v>
+      </c>
+      <c r="N25">
+        <v>11.63987701832106</v>
+      </c>
+      <c r="O25">
+        <v>22.69154439754878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14548230546026</v>
+        <v>20.86393328001169</v>
       </c>
       <c r="C2">
-        <v>11.72708131735229</v>
+        <v>15.68586679088008</v>
       </c>
       <c r="D2">
-        <v>3.324169906406337</v>
+        <v>9.536318319410467</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.97210366993848</v>
+        <v>23.90048334595886</v>
       </c>
       <c r="G2">
-        <v>2.059878681413485</v>
+        <v>2.063814505417883</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.54693877008761</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.30877087396097</v>
       </c>
       <c r="K2">
-        <v>15.789779435752</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.03426829382303</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.98542364241545</v>
+        <v>11.50639260492812</v>
       </c>
       <c r="O2">
-        <v>21.46652713065443</v>
+        <v>15.18484406755023</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.88446603088764</v>
+        <v>19.47896473950635</v>
       </c>
       <c r="C3">
-        <v>10.97545691399539</v>
+        <v>14.65706925941952</v>
       </c>
       <c r="D3">
-        <v>3.396093327178269</v>
+        <v>9.077089575317034</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.67212836850331</v>
+        <v>23.0538509381968</v>
       </c>
       <c r="G3">
-        <v>2.06862815441026</v>
+        <v>2.069535041982367</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.66880138836927</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.02389802022897</v>
       </c>
       <c r="K3">
-        <v>14.74478346535817</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.71088807461669</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.2263430347165</v>
+        <v>11.59865747551029</v>
       </c>
       <c r="O3">
-        <v>20.65318357194226</v>
+        <v>14.86898253867307</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.06795882489126</v>
+        <v>18.57819190673956</v>
       </c>
       <c r="C4">
-        <v>10.48992296252757</v>
+        <v>13.98865889187336</v>
       </c>
       <c r="D4">
-        <v>3.439802105549145</v>
+        <v>8.787796985312132</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.87411694819093</v>
+        <v>22.54329781689559</v>
       </c>
       <c r="G4">
-        <v>2.074116525741683</v>
+        <v>2.07315301490005</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.75782683986961</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.849681241389689</v>
       </c>
       <c r="K4">
-        <v>14.06902714341346</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.23591174242332</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.37770364904183</v>
+        <v>11.65905746723819</v>
       </c>
       <c r="O4">
-        <v>20.1626919339657</v>
+        <v>14.6890835082514</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.72448783847014</v>
+        <v>18.19838348500513</v>
       </c>
       <c r="C5">
-        <v>10.28599630683849</v>
+        <v>13.70700390503695</v>
       </c>
       <c r="D5">
-        <v>3.45754046212472</v>
+        <v>8.668216450578472</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.54927002794267</v>
+        <v>22.33784087771001</v>
       </c>
       <c r="G5">
-        <v>2.076384627792323</v>
+        <v>2.074654642178049</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.79746694914634</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.778951676422826</v>
       </c>
       <c r="K5">
-        <v>13.78500511260734</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.62174988930054</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.44026425160891</v>
+        <v>11.68459457806728</v>
       </c>
       <c r="O5">
-        <v>19.96517689023954</v>
+        <v>14.61928714025241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.66680289552705</v>
+        <v>18.13454557556084</v>
       </c>
       <c r="C6">
-        <v>10.25176747432706</v>
+        <v>13.65967430963767</v>
       </c>
       <c r="D6">
-        <v>3.460482564266067</v>
+        <v>8.648262906687899</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.49536071475663</v>
+        <v>22.30388967566078</v>
       </c>
       <c r="G6">
-        <v>2.076763213731062</v>
+        <v>2.074905654346395</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.80424626409309</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.767225857568347</v>
       </c>
       <c r="K6">
-        <v>13.73731958525269</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.51895310543379</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.4507060155393</v>
+        <v>11.6888902532567</v>
       </c>
       <c r="O6">
-        <v>19.93252656418637</v>
+        <v>14.60790897417174</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.06337028249633</v>
+        <v>18.57312132726186</v>
       </c>
       <c r="C7">
-        <v>10.4871973282896</v>
+        <v>13.98489798290462</v>
       </c>
       <c r="D7">
-        <v>3.440041578220428</v>
+        <v>8.786190912471179</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.86973408395893</v>
+        <v>22.54051607990276</v>
       </c>
       <c r="G7">
-        <v>2.074146983505966</v>
+        <v>2.073173154992464</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.75834809871104</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.848726160281647</v>
       </c>
       <c r="K7">
-        <v>14.06523180829836</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.2276831004146</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37854377881016</v>
+        <v>11.65939815394562</v>
       </c>
       <c r="O7">
-        <v>20.16001842149485</v>
+        <v>14.6881280145972</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.71937863034814</v>
+        <v>20.39681630973909</v>
       </c>
       <c r="C8">
-        <v>11.47289154134263</v>
+        <v>15.3387348840241</v>
       </c>
       <c r="D8">
-        <v>3.34908902713862</v>
+        <v>9.379579084792717</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.52399574168525</v>
+        <v>23.60679217394031</v>
       </c>
       <c r="G8">
-        <v>2.062872874531066</v>
+        <v>2.065765495853594</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.58588025150551</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.210454115754654</v>
       </c>
       <c r="K8">
-        <v>15.43650507150476</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.24261605529154</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.06778931681817</v>
+        <v>11.53741543972562</v>
       </c>
       <c r="O8">
-        <v>21.18430474633555</v>
+        <v>15.07301466820737</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.63720645623067</v>
+        <v>23.5762878442937</v>
       </c>
       <c r="C9">
-        <v>13.21676037754912</v>
+        <v>17.7042388102028</v>
       </c>
       <c r="D9">
-        <v>3.164991445653357</v>
+        <v>10.47971013624005</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.76007824273793</v>
+        <v>25.76066041246964</v>
       </c>
       <c r="G9">
-        <v>2.041565819627762</v>
+        <v>2.052041224985456</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.37025135553444</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.921765846377545</v>
       </c>
       <c r="K9">
-        <v>17.85826552515013</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.82095109132327</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.48493879461105</v>
+        <v>11.32889749052491</v>
       </c>
       <c r="O9">
-        <v>23.25986193296451</v>
+        <v>15.93935650307515</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58818927163365</v>
+        <v>25.67491001479676</v>
       </c>
       <c r="C10">
-        <v>14.38557627861272</v>
+        <v>19.26898181899566</v>
       </c>
       <c r="D10">
-        <v>3.022569196626773</v>
+        <v>11.24362847741286</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.12705388102956</v>
+        <v>27.3687823346816</v>
       </c>
       <c r="G10">
-        <v>2.026203241057713</v>
+        <v>2.042394530571791</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.3008034479395</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.441469093856503</v>
       </c>
       <c r="K10">
-        <v>19.48008641357177</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.80426531721721</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.07190082967554</v>
+        <v>11.19584969094051</v>
       </c>
       <c r="O10">
-        <v>24.8242305322815</v>
+        <v>16.64355890109478</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.43584412717695</v>
+        <v>26.57915163169709</v>
       </c>
       <c r="C11">
-        <v>14.89364328727959</v>
+        <v>19.94401182907766</v>
       </c>
       <c r="D11">
-        <v>2.95513484234313</v>
+        <v>11.58073771068447</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.20253964862155</v>
+        <v>28.10384397295028</v>
       </c>
       <c r="G11">
-        <v>2.019222680267722</v>
+        <v>2.038088262877187</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.291755810318</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.676609193009307</v>
       </c>
       <c r="K11">
-        <v>20.18509371602519</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.61894520358653</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.8870667864781</v>
+        <v>11.14005760184955</v>
       </c>
       <c r="O11">
-        <v>25.54551667756165</v>
+        <v>16.97845457964444</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.75127305374079</v>
+        <v>26.91440279932833</v>
       </c>
       <c r="C12">
-        <v>15.08270217096673</v>
+        <v>20.19440968697924</v>
       </c>
       <c r="D12">
-        <v>2.929097807782584</v>
+        <v>11.70685373369761</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.60987041810649</v>
+        <v>28.38256863858244</v>
       </c>
       <c r="G12">
-        <v>2.016574649651487</v>
+        <v>2.036468276009518</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.29184480899101</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.765426870313872</v>
       </c>
       <c r="K12">
-        <v>20.44747557750092</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.30970586274007</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.81749225269449</v>
+        <v>11.1196446573042</v>
       </c>
       <c r="O12">
-        <v>25.82023914397855</v>
+        <v>17.10734758111473</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.68358416041518</v>
+        <v>26.84251772316746</v>
       </c>
       <c r="C13">
-        <v>15.04213226975411</v>
+        <v>20.1407131201197</v>
       </c>
       <c r="D13">
-        <v>2.934729924050883</v>
+        <v>11.67976141888183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.52213573152402</v>
+        <v>28.32252544442494</v>
       </c>
       <c r="G13">
-        <v>2.017145263845547</v>
+        <v>2.036816711513919</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.29166492521808</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.7463089273575</v>
       </c>
       <c r="K13">
-        <v>20.39116898992413</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.16071676021345</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.832458209179</v>
+        <v>11.12400860902496</v>
       </c>
       <c r="O13">
-        <v>25.76099773033066</v>
+        <v>17.0794960952373</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.46190504046603</v>
+        <v>26.60687604265264</v>
       </c>
       <c r="C14">
-        <v>14.90926374924816</v>
+        <v>19.96471645062401</v>
       </c>
       <c r="D14">
-        <v>2.953003614245665</v>
+        <v>11.5911444120808</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.23604763786506</v>
+        <v>28.12676798025144</v>
       </c>
       <c r="G14">
-        <v>2.019004956252203</v>
+        <v>2.037954777659384</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.29169110852837</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.683920977631672</v>
       </c>
       <c r="K14">
-        <v>20.2067712635784</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.67568072804931</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.8813346200255</v>
+        <v>11.13836369591291</v>
       </c>
       <c r="O14">
-        <v>25.56808489689902</v>
+        <v>16.98901717600585</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.32540150689363</v>
+        <v>26.46160819420989</v>
       </c>
       <c r="C15">
-        <v>14.82744551766684</v>
+        <v>19.85623552360579</v>
       </c>
       <c r="D15">
-        <v>2.964127369997693</v>
+        <v>11.53666234714103</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.06082935647356</v>
+        <v>28.00690610001155</v>
       </c>
       <c r="G15">
-        <v>2.020143272194746</v>
+        <v>2.038653235916996</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.29217308140456</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.645676253099987</v>
       </c>
       <c r="K15">
-        <v>20.09322850882661</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.37916075376291</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.91132651184457</v>
+        <v>11.14725068250904</v>
       </c>
       <c r="O15">
-        <v>25.45013477942867</v>
+        <v>16.93386604864512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.53200536993712</v>
+        <v>25.61480817444516</v>
       </c>
       <c r="C16">
-        <v>14.3519027256084</v>
+        <v>19.22413257687992</v>
       </c>
       <c r="D16">
-        <v>3.026913356273685</v>
+        <v>11.22138415364046</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.05676071575409</v>
+        <v>27.32080291597661</v>
       </c>
       <c r="G16">
-        <v>2.026659131494185</v>
+        <v>2.042677514687711</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.30187167144052</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.426072672414508</v>
       </c>
       <c r="K16">
-        <v>19.43336343627042</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.68597670096485</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.08404001123526</v>
+        <v>11.19959387965016</v>
       </c>
       <c r="O16">
-        <v>24.77730147963631</v>
+        <v>16.62196393543962</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.0351920076994</v>
+        <v>25.08246711842776</v>
       </c>
       <c r="C17">
-        <v>14.05416406789099</v>
+        <v>18.82698421330814</v>
       </c>
       <c r="D17">
-        <v>3.064676597050894</v>
+        <v>11.02527065305516</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.44060312695456</v>
+        <v>26.90069583212892</v>
       </c>
       <c r="G17">
-        <v>2.030654706799623</v>
+        <v>2.045166542581412</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.3137889430207</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.290993258001928</v>
       </c>
       <c r="K17">
-        <v>19.0202493120528</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.64992879204979</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.19076401000157</v>
+        <v>11.23293984920587</v>
       </c>
       <c r="O17">
-        <v>24.36711923686635</v>
+        <v>16.43433569669885</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.74567548227203</v>
+        <v>24.77152626807669</v>
       </c>
       <c r="C18">
-        <v>13.88068418505717</v>
+        <v>18.59508877633293</v>
       </c>
       <c r="D18">
-        <v>3.086156749430693</v>
+        <v>10.91149394682724</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.0860632421069</v>
+        <v>26.65939830919086</v>
       </c>
       <c r="G18">
-        <v>2.0329540145962</v>
+        <v>2.046605960071345</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.32274879366711</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.213180855546669</v>
       </c>
       <c r="K18">
-        <v>18.7795448156496</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.05403329658436</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.25243828041054</v>
+        <v>11.25256276342323</v>
       </c>
       <c r="O18">
-        <v>24.13208347482524</v>
+        <v>16.32778739299336</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.64699892376065</v>
+        <v>24.66542825169385</v>
       </c>
       <c r="C19">
-        <v>13.82156223321111</v>
+        <v>18.51597566887202</v>
       </c>
       <c r="D19">
-        <v>3.093391471854414</v>
+        <v>10.87280484832524</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.96599256913978</v>
+        <v>26.57776164154406</v>
       </c>
       <c r="G19">
-        <v>2.033732875832596</v>
+        <v>2.047094692900468</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.326135771375</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.186816042606081</v>
       </c>
       <c r="K19">
-        <v>18.69751174784538</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.85219298414119</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.27337040725228</v>
+        <v>11.25928188218855</v>
       </c>
       <c r="O19">
-        <v>24.05265297069613</v>
+        <v>16.29194792555594</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.08846685599949</v>
+        <v>25.13962697014529</v>
       </c>
       <c r="C20">
-        <v>14.08608904142143</v>
+        <v>18.86961960057021</v>
       </c>
       <c r="D20">
-        <v>3.060682275528654</v>
+        <v>11.04624879883059</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.50620757233218</v>
+        <v>26.94538315556593</v>
       </c>
       <c r="G20">
-        <v>2.030229288940114</v>
+        <v>2.044900782298288</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.31230046393126</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.305385271404003</v>
       </c>
       <c r="K20">
-        <v>19.06454518697817</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.7601965125765</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.1793732383717</v>
+        <v>11.2293440093908</v>
       </c>
       <c r="O20">
-        <v>24.4106906065247</v>
+        <v>16.45416733702426</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.52716701449823</v>
+        <v>26.67628347383804</v>
       </c>
       <c r="C21">
-        <v>14.94838045815875</v>
+        <v>20.01655208162767</v>
       </c>
       <c r="D21">
-        <v>2.947650917814769</v>
+        <v>11.61721544334835</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.32007402183402</v>
+        <v>28.18425745499961</v>
       </c>
       <c r="G21">
-        <v>2.01845889841542</v>
+        <v>2.037620218725394</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.29158582639859</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.702252203714421</v>
       </c>
       <c r="K21">
-        <v>20.26105686486484</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.81801975585351</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.86696729743699</v>
+        <v>11.1341275876776</v>
       </c>
       <c r="O21">
-        <v>25.62470283339489</v>
+        <v>17.01553682112871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.43512595342489</v>
+        <v>27.63885470606462</v>
       </c>
       <c r="C22">
-        <v>15.49252742231467</v>
+        <v>20.7357396908966</v>
       </c>
       <c r="D22">
-        <v>2.870774345828906</v>
+        <v>11.98138956651064</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.50617434402425</v>
+        <v>28.99607089231501</v>
       </c>
       <c r="G22">
-        <v>2.010735430110402</v>
+        <v>2.032923764793626</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.2986646875234</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.960306531734236</v>
       </c>
       <c r="K22">
-        <v>21.01636149169612</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.83967961642045</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.66521186531488</v>
+        <v>11.07607964753489</v>
       </c>
       <c r="O22">
-        <v>26.42756313516783</v>
+        <v>17.39451625801395</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.95342729584755</v>
+        <v>27.1289001605811</v>
       </c>
       <c r="C23">
-        <v>15.20386108260816</v>
+        <v>20.35465361184838</v>
       </c>
       <c r="D23">
-        <v>2.912129087285606</v>
+        <v>11.78785578988632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.87294587636904</v>
+        <v>28.56262960890476</v>
       </c>
       <c r="G23">
-        <v>2.014862705344537</v>
+        <v>2.035425079513323</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.29290924027453</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.822709641783266</v>
       </c>
       <c r="K23">
-        <v>20.61563976618577</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.75720887794248</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.77268068108008</v>
+        <v>11.10666632008211</v>
       </c>
       <c r="O23">
-        <v>25.9981005036768</v>
+        <v>17.19114579235626</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.06439343231018</v>
+        <v>25.11380024169885</v>
       </c>
       <c r="C24">
-        <v>14.07166294825975</v>
+        <v>18.85035526539259</v>
       </c>
       <c r="D24">
-        <v>3.062488817423179</v>
+        <v>11.03676777895823</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.47654876197178</v>
+        <v>26.92517929703479</v>
       </c>
       <c r="G24">
-        <v>2.030421613089005</v>
+        <v>2.045020906144613</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.31296685865426</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.298879116821421</v>
       </c>
       <c r="K24">
-        <v>19.04452899739849</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.71034550555255</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.18452201663348</v>
+        <v>11.23096828361387</v>
       </c>
       <c r="O24">
-        <v>24.39098956342494</v>
+        <v>16.44519733434865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.88232900885537</v>
+        <v>22.75817942052561</v>
       </c>
       <c r="C25">
-        <v>12.76497205680436</v>
+        <v>17.09497369589382</v>
       </c>
       <c r="D25">
-        <v>3.215744911010163</v>
+        <v>10.18955483903571</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.88643430482072</v>
+        <v>25.17265582497332</v>
       </c>
       <c r="G25">
-        <v>2.04726259939508</v>
+        <v>2.055673342129488</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.41402633932231</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.729586769196244</v>
       </c>
       <c r="K25">
-        <v>17.23119976335683</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.33967279941413</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.63987701832106</v>
+        <v>11.3818813764495</v>
       </c>
       <c r="O25">
-        <v>22.69154439754878</v>
+        <v>15.69304870303584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.86393328001169</v>
+        <v>13.96282179274482</v>
       </c>
       <c r="C2">
-        <v>15.68586679088008</v>
+        <v>9.168966494697283</v>
       </c>
       <c r="D2">
-        <v>9.536318319410467</v>
+        <v>11.25690486134541</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.90048334595886</v>
+        <v>30.25138195514674</v>
       </c>
       <c r="G2">
-        <v>2.063814505417883</v>
+        <v>3.624938778805833</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.54693877008761</v>
+        <v>19.24917581819069</v>
       </c>
       <c r="J2">
-        <v>8.30877087396097</v>
+        <v>11.30110482416007</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.50639260492812</v>
+        <v>16.45614208770235</v>
       </c>
       <c r="O2">
-        <v>15.18484406755023</v>
+        <v>21.61260684382891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47896473950635</v>
+        <v>13.39395254803101</v>
       </c>
       <c r="C3">
-        <v>14.65706925941952</v>
+        <v>8.658504744079369</v>
       </c>
       <c r="D3">
-        <v>9.077089575317034</v>
+        <v>11.18247234106025</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.0538509381968</v>
+        <v>30.21258255833282</v>
       </c>
       <c r="G3">
-        <v>2.069535041982367</v>
+        <v>3.627118830667597</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.66880138836927</v>
+        <v>19.35080202384217</v>
       </c>
       <c r="J3">
-        <v>8.02389802022897</v>
+        <v>11.28213968970842</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.59865747551029</v>
+        <v>16.49455944715955</v>
       </c>
       <c r="O3">
-        <v>14.86898253867307</v>
+        <v>21.64977849045589</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57819190673956</v>
+        <v>13.03331292877916</v>
       </c>
       <c r="C4">
-        <v>13.98865889187336</v>
+        <v>8.329431752608045</v>
       </c>
       <c r="D4">
-        <v>8.787796985312132</v>
+        <v>11.13865605830645</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.54329781689559</v>
+        <v>30.19782232440492</v>
       </c>
       <c r="G4">
-        <v>2.07315301490005</v>
+        <v>3.628528399337069</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.75782683986961</v>
+        <v>19.41790274222534</v>
       </c>
       <c r="J4">
-        <v>7.849681241389689</v>
+        <v>11.27281688376741</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.65905746723819</v>
+        <v>16.51993105691866</v>
       </c>
       <c r="O4">
-        <v>14.6890835082514</v>
+        <v>21.67864878946677</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19838348500513</v>
+        <v>12.88370559590927</v>
       </c>
       <c r="C5">
-        <v>13.70700390503695</v>
+        <v>8.191507693644363</v>
       </c>
       <c r="D5">
-        <v>8.668216450578472</v>
+        <v>11.121289573331</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.33784087771001</v>
+        <v>30.19408907164883</v>
       </c>
       <c r="G5">
-        <v>2.074654642178049</v>
+        <v>3.629120723505165</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.79746694914634</v>
+        <v>19.44642627286943</v>
       </c>
       <c r="J5">
-        <v>7.778951676422826</v>
+        <v>11.26960409321954</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.68459457806728</v>
+        <v>16.53071927595114</v>
       </c>
       <c r="O5">
-        <v>14.61928714025241</v>
+        <v>21.69192913532209</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13454557556084</v>
+        <v>12.85871039765598</v>
       </c>
       <c r="C6">
-        <v>13.65967430963767</v>
+        <v>8.168378222816889</v>
       </c>
       <c r="D6">
-        <v>8.648262906687899</v>
+        <v>11.11843583518839</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.30388967566078</v>
+        <v>30.19360701156567</v>
       </c>
       <c r="G6">
-        <v>2.074905654346395</v>
+        <v>3.629220162116843</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.80424626409309</v>
+        <v>19.45123373610351</v>
       </c>
       <c r="J6">
-        <v>7.767225857568347</v>
+        <v>11.26910608779698</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.6888902532567</v>
+        <v>16.53253779526367</v>
       </c>
       <c r="O6">
-        <v>14.60790897417174</v>
+        <v>21.69422569756985</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57312132726186</v>
+        <v>13.03130567922451</v>
       </c>
       <c r="C7">
-        <v>13.98489798290462</v>
+        <v>8.327586981551665</v>
       </c>
       <c r="D7">
-        <v>8.786190912471179</v>
+        <v>11.13841984880864</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.54051607990276</v>
+        <v>30.19776273615133</v>
       </c>
       <c r="G7">
-        <v>2.073173154992464</v>
+        <v>3.628536315020461</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.75834809871104</v>
+        <v>19.41828264879328</v>
       </c>
       <c r="J7">
-        <v>7.848726160281647</v>
+        <v>11.2727711780049</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.65939815394562</v>
+        <v>16.52007473139186</v>
       </c>
       <c r="O7">
-        <v>14.6881280145972</v>
+        <v>21.67882176395459</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.39681630973909</v>
+        <v>13.76915029431332</v>
       </c>
       <c r="C8">
-        <v>15.3387348840241</v>
+        <v>8.996266461452015</v>
       </c>
       <c r="D8">
-        <v>9.379579084792717</v>
+        <v>11.2308583240995</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.60679217394031</v>
+        <v>30.23612526865855</v>
       </c>
       <c r="G8">
-        <v>2.065765495853594</v>
+        <v>3.625675757904317</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.58588025150551</v>
+        <v>19.28323893684846</v>
       </c>
       <c r="J8">
-        <v>8.210454115754654</v>
+        <v>11.29408536583211</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.53741543972562</v>
+        <v>16.46901869827426</v>
       </c>
       <c r="O8">
-        <v>15.07301466820737</v>
+        <v>21.62416577281937</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.5762878442937</v>
+        <v>15.11798606419149</v>
       </c>
       <c r="C9">
-        <v>17.7042388102028</v>
+        <v>10.17957228466546</v>
       </c>
       <c r="D9">
-        <v>10.47971013624005</v>
+        <v>11.42640346679809</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.76066041246964</v>
+        <v>30.38304240686645</v>
       </c>
       <c r="G9">
-        <v>2.052041224985456</v>
+        <v>3.62062698639689</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.37025135553444</v>
+        <v>19.05585499206543</v>
       </c>
       <c r="J9">
-        <v>8.921765846377545</v>
+        <v>11.35417710474393</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.32889749052491</v>
+        <v>16.38301699867536</v>
       </c>
       <c r="O9">
-        <v>15.93935650307515</v>
+        <v>21.56516284693447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67491001479676</v>
+        <v>16.04006742131621</v>
       </c>
       <c r="C10">
-        <v>19.26898181899566</v>
+        <v>10.96700172572564</v>
       </c>
       <c r="D10">
-        <v>11.24362847741286</v>
+        <v>11.57780631586758</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.3687823346816</v>
+        <v>30.53424529550204</v>
       </c>
       <c r="G10">
-        <v>2.042394530571791</v>
+        <v>3.617255814246614</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.3008034479395</v>
+        <v>18.91179775776764</v>
       </c>
       <c r="J10">
-        <v>9.441469093856503</v>
+        <v>11.40927950454197</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.19584969094051</v>
+        <v>16.32839902088519</v>
       </c>
       <c r="O10">
-        <v>16.64355890109478</v>
+        <v>21.55141587239885</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57915163169709</v>
+        <v>16.44306576625189</v>
       </c>
       <c r="C11">
-        <v>19.94401182907766</v>
+        <v>11.3068698798957</v>
       </c>
       <c r="D11">
-        <v>11.58073771068447</v>
+        <v>11.64814618717227</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.10384397295028</v>
+        <v>30.61228418740232</v>
       </c>
       <c r="G11">
-        <v>2.038088262877187</v>
+        <v>3.615794821331418</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.291755810318</v>
+        <v>18.85129685992183</v>
       </c>
       <c r="J11">
-        <v>9.676609193009307</v>
+        <v>11.43667316564438</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.14005760184955</v>
+        <v>16.30540408578139</v>
       </c>
       <c r="O11">
-        <v>16.97845457964444</v>
+        <v>21.55162508126851</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91440279932833</v>
+        <v>16.59320066334078</v>
       </c>
       <c r="C12">
-        <v>20.19440968697924</v>
+        <v>11.43289856802464</v>
       </c>
       <c r="D12">
-        <v>11.70685373369761</v>
+        <v>11.67497397991828</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.38256863858244</v>
+        <v>30.64315092120792</v>
       </c>
       <c r="G12">
-        <v>2.036468276009518</v>
+        <v>3.615251957035813</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.29184480899101</v>
+        <v>18.8291137582342</v>
       </c>
       <c r="J12">
-        <v>9.765426870313872</v>
+        <v>11.44737592248907</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.1196446573042</v>
+        <v>16.29696207632393</v>
       </c>
       <c r="O12">
-        <v>17.10734758111473</v>
+        <v>21.55263524371259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84251772316746</v>
+        <v>16.56097786740849</v>
       </c>
       <c r="C13">
-        <v>20.1407131201197</v>
+        <v>11.405875346095</v>
       </c>
       <c r="D13">
-        <v>11.67976141888183</v>
+        <v>11.66918792138724</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.32252544442494</v>
+        <v>30.63644500481016</v>
       </c>
       <c r="G13">
-        <v>2.036816711513919</v>
+        <v>3.615368411679732</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.29166492521808</v>
+        <v>18.83385887982118</v>
       </c>
       <c r="J13">
-        <v>9.7463089273575</v>
+        <v>11.44505633232627</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.12400860902496</v>
+        <v>16.29876840611331</v>
       </c>
       <c r="O13">
-        <v>17.0794960952373</v>
+        <v>21.55237626624778</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60687604265264</v>
+        <v>16.45546753911411</v>
       </c>
       <c r="C14">
-        <v>19.96471645062401</v>
+        <v>11.3172920590081</v>
       </c>
       <c r="D14">
-        <v>11.5911444120808</v>
+        <v>11.65034959661006</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.12676798025144</v>
+        <v>30.61479735446721</v>
       </c>
       <c r="G14">
-        <v>2.037954777659384</v>
+        <v>3.615749951793189</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.29169110852837</v>
+        <v>18.84945724537115</v>
       </c>
       <c r="J14">
-        <v>9.683920977631672</v>
+        <v>11.43754711865849</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.13836369591291</v>
+        <v>16.30470423493961</v>
       </c>
       <c r="O14">
-        <v>16.98901717600585</v>
+        <v>21.55168952415427</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.46160819420989</v>
+        <v>16.39051466596061</v>
       </c>
       <c r="C15">
-        <v>19.85623552360579</v>
+        <v>11.26268336205472</v>
       </c>
       <c r="D15">
-        <v>11.53666234714103</v>
+        <v>11.63883495753544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.00690610001155</v>
+        <v>30.60170829905409</v>
       </c>
       <c r="G15">
-        <v>2.038653235916996</v>
+        <v>3.61598500659299</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.29217308140456</v>
+        <v>18.85910651995959</v>
       </c>
       <c r="J15">
-        <v>9.645676253099987</v>
+        <v>11.43299023785062</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.14725068250904</v>
+        <v>16.30837468523555</v>
       </c>
       <c r="O15">
-        <v>16.93386604864512</v>
+        <v>21.55139014469161</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.61480817444516</v>
+        <v>16.0133899811526</v>
       </c>
       <c r="C16">
-        <v>19.22413257687992</v>
+        <v>10.94441835394476</v>
       </c>
       <c r="D16">
-        <v>11.22138415364046</v>
+        <v>11.5732373048418</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.32080291597661</v>
+        <v>30.52933021536811</v>
       </c>
       <c r="G16">
-        <v>2.042677514687711</v>
+        <v>3.617352749285838</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.30187167144052</v>
+        <v>18.91585319932416</v>
       </c>
       <c r="J16">
-        <v>9.426072672414508</v>
+        <v>11.40753565344069</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.19959387965016</v>
+        <v>16.32993899834742</v>
       </c>
       <c r="O16">
-        <v>16.62196393543962</v>
+        <v>21.55153240236399</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.08246711842776</v>
+        <v>15.77774056507351</v>
       </c>
       <c r="C17">
-        <v>18.82698421330814</v>
+        <v>10.74444872845164</v>
       </c>
       <c r="D17">
-        <v>11.02527065305516</v>
+        <v>11.53335717935142</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.90069583212892</v>
+        <v>30.48728866938125</v>
       </c>
       <c r="G17">
-        <v>2.045166542581412</v>
+        <v>3.61821036390798</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.3137889430207</v>
+        <v>18.95195678020621</v>
       </c>
       <c r="J17">
-        <v>9.290993258001928</v>
+        <v>11.39251254494226</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.23293984920587</v>
+        <v>16.34364174106589</v>
       </c>
       <c r="O17">
-        <v>16.43433569669885</v>
+        <v>21.5532763316046</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.77152626807669</v>
+        <v>15.64065705790344</v>
       </c>
       <c r="C18">
-        <v>18.59508877633293</v>
+        <v>10.62770698825121</v>
       </c>
       <c r="D18">
-        <v>10.91149394682724</v>
+        <v>11.51055833942305</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.65939830919086</v>
+        <v>30.46397979065349</v>
       </c>
       <c r="G18">
-        <v>2.046605960071345</v>
+        <v>3.618710474979108</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.32274879366711</v>
+        <v>18.97319596108813</v>
       </c>
       <c r="J18">
-        <v>9.213180855546669</v>
+        <v>11.38409105238461</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.25256276342323</v>
+        <v>16.35169745576689</v>
       </c>
       <c r="O18">
-        <v>16.32778739299336</v>
+        <v>21.55488765407045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66542825169385</v>
+        <v>15.59398117031665</v>
       </c>
       <c r="C19">
-        <v>18.51597566887202</v>
+        <v>10.58788526456015</v>
       </c>
       <c r="D19">
-        <v>10.87280484832524</v>
+        <v>11.50286352348603</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.57776164154406</v>
+        <v>30.45623807236679</v>
       </c>
       <c r="G19">
-        <v>2.047094692900468</v>
+        <v>3.618880979346859</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.326135771375</v>
+        <v>18.98046836874529</v>
       </c>
       <c r="J19">
-        <v>9.186816042606081</v>
+        <v>11.38127751618218</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.25928188218855</v>
+        <v>16.35445492727506</v>
       </c>
       <c r="O19">
-        <v>16.29194792555594</v>
+        <v>21.55553762797428</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.13962697014529</v>
+        <v>15.80298647423073</v>
       </c>
       <c r="C20">
-        <v>18.86961960057021</v>
+        <v>10.76591459635029</v>
       </c>
       <c r="D20">
-        <v>11.04624879883059</v>
+        <v>11.53758822301538</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.94538315556593</v>
+        <v>30.49167389134474</v>
       </c>
       <c r="G20">
-        <v>2.044900782298288</v>
+        <v>3.618118362481291</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.31230046393126</v>
+        <v>18.94806447476381</v>
       </c>
       <c r="J20">
-        <v>9.305385271404003</v>
+        <v>11.39408911012104</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.2293440093908</v>
+        <v>16.34216502920927</v>
       </c>
       <c r="O20">
-        <v>16.45416733702426</v>
+        <v>21.55302772056625</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.67628347383804</v>
+        <v>16.48652632349685</v>
       </c>
       <c r="C21">
-        <v>20.01655208162767</v>
+        <v>11.34338387454454</v>
       </c>
       <c r="D21">
-        <v>11.61721544334835</v>
+        <v>11.65587782335398</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.18425745499961</v>
+        <v>30.62112024025543</v>
       </c>
       <c r="G21">
-        <v>2.037620218725394</v>
+        <v>3.615637602872297</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.29158582639859</v>
+        <v>18.8448558589991</v>
       </c>
       <c r="J21">
-        <v>9.702252203714421</v>
+        <v>11.43974386202921</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.1341275876776</v>
+        <v>16.30295353178759</v>
       </c>
       <c r="O21">
-        <v>17.01553682112871</v>
+        <v>21.55186596266314</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.63885470606462</v>
+        <v>16.91881330580526</v>
       </c>
       <c r="C22">
-        <v>20.7357396908966</v>
+        <v>11.70520811130696</v>
       </c>
       <c r="D22">
-        <v>11.98138956651064</v>
+        <v>11.73429468409534</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.99607089231501</v>
+        <v>30.71337741040197</v>
       </c>
       <c r="G22">
-        <v>2.032923764793626</v>
+        <v>3.614076772842622</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.2986646875234</v>
+        <v>18.78164396684327</v>
       </c>
       <c r="J22">
-        <v>9.960306531734236</v>
+        <v>11.4714989522196</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.07607964753489</v>
+        <v>16.27887487497642</v>
       </c>
       <c r="O22">
-        <v>17.39451625801395</v>
+        <v>21.55653309960014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1289001605811</v>
+        <v>16.68944611441733</v>
       </c>
       <c r="C23">
-        <v>20.35465361184838</v>
+        <v>11.51353131839301</v>
       </c>
       <c r="D23">
-        <v>11.78785578988632</v>
+        <v>11.69234717760795</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.56262960890476</v>
+        <v>30.66344326672039</v>
       </c>
       <c r="G23">
-        <v>2.035425079513323</v>
+        <v>3.614904299956344</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.29290924027453</v>
+        <v>18.81499204271833</v>
       </c>
       <c r="J23">
-        <v>9.822709641783266</v>
+        <v>11.45437711166074</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.10666632008211</v>
+        <v>16.29158459903603</v>
       </c>
       <c r="O23">
-        <v>17.19114579235626</v>
+        <v>21.55354531876793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.11380024169885</v>
+        <v>15.79157779140128</v>
       </c>
       <c r="C24">
-        <v>18.85035526539259</v>
+        <v>10.75621540828649</v>
       </c>
       <c r="D24">
-        <v>11.03676777895823</v>
+        <v>11.53567496559566</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.92517929703479</v>
+        <v>30.48968864816515</v>
       </c>
       <c r="G24">
-        <v>2.045020906144613</v>
+        <v>3.618159934339709</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.31296685865426</v>
+        <v>18.94982268255027</v>
       </c>
       <c r="J24">
-        <v>9.298879116821421</v>
+        <v>11.39337567337392</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.23096828361387</v>
+        <v>16.34283209666859</v>
       </c>
       <c r="O24">
-        <v>16.44519733434865</v>
+        <v>21.55313822159295</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.75817942052561</v>
+        <v>14.76461396109466</v>
       </c>
       <c r="C25">
-        <v>17.09497369589382</v>
+        <v>9.873619101091718</v>
       </c>
       <c r="D25">
-        <v>10.18955483903571</v>
+        <v>11.37207259035794</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.17265582497332</v>
+        <v>30.33565905872205</v>
       </c>
       <c r="G25">
-        <v>2.055673342129488</v>
+        <v>3.621933162444452</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.41402633932231</v>
+        <v>19.11334226102194</v>
       </c>
       <c r="J25">
-        <v>8.729586769196244</v>
+        <v>11.33598089355079</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.3818813764495</v>
+        <v>16.40477537886978</v>
       </c>
       <c r="O25">
-        <v>15.69304870303584</v>
+        <v>21.57594023306212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96282179274482</v>
+        <v>20.86393328001164</v>
       </c>
       <c r="C2">
-        <v>9.168966494697283</v>
+        <v>15.68586679088</v>
       </c>
       <c r="D2">
-        <v>11.25690486134541</v>
+        <v>9.53631831941054</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.25138195514674</v>
+        <v>23.90048334595899</v>
       </c>
       <c r="G2">
-        <v>3.624938778805833</v>
+        <v>2.063814505417883</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.24917581819069</v>
+        <v>11.54693877008772</v>
       </c>
       <c r="J2">
-        <v>11.30110482416007</v>
+        <v>8.308770873961041</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.45614208770235</v>
+        <v>11.50639260492811</v>
       </c>
       <c r="O2">
-        <v>21.61260684382891</v>
+        <v>15.18484406755032</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.39395254803101</v>
+        <v>19.47896473950637</v>
       </c>
       <c r="C3">
-        <v>8.658504744079369</v>
+        <v>14.65706925941953</v>
       </c>
       <c r="D3">
-        <v>11.18247234106025</v>
+        <v>9.077089575317011</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.21258255833282</v>
+        <v>23.05385093819674</v>
       </c>
       <c r="G3">
-        <v>3.627118830667597</v>
+        <v>2.069535041982367</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.35080202384217</v>
+        <v>11.6688013883692</v>
       </c>
       <c r="J3">
-        <v>11.28213968970842</v>
+        <v>8.023898020228984</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.49455944715955</v>
+        <v>11.59865747551026</v>
       </c>
       <c r="O3">
-        <v>21.64977849045589</v>
+        <v>14.86898253867301</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.03331292877916</v>
+        <v>18.57819190673961</v>
       </c>
       <c r="C4">
-        <v>8.329431752608045</v>
+        <v>13.9886588918735</v>
       </c>
       <c r="D4">
-        <v>11.13865605830645</v>
+        <v>8.787796985312022</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.19782232440492</v>
+        <v>22.54329781689544</v>
       </c>
       <c r="G4">
-        <v>3.628528399337069</v>
+        <v>2.073153014900051</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.41790274222534</v>
+        <v>11.75782683986954</v>
       </c>
       <c r="J4">
-        <v>11.27281688376741</v>
+        <v>7.84968124138967</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.51993105691866</v>
+        <v>11.65905746723812</v>
       </c>
       <c r="O4">
-        <v>21.67864878946677</v>
+        <v>14.68908350825127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.88370559590927</v>
+        <v>18.19838348500511</v>
       </c>
       <c r="C5">
-        <v>8.191507693644363</v>
+        <v>13.70700390503691</v>
       </c>
       <c r="D5">
-        <v>11.121289573331</v>
+        <v>8.668216450578406</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.19408907164883</v>
+        <v>22.33784087771</v>
       </c>
       <c r="G5">
-        <v>3.629120723505165</v>
+        <v>2.074654642178049</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.44642627286943</v>
+        <v>11.79746694914642</v>
       </c>
       <c r="J5">
-        <v>11.26960409321954</v>
+        <v>7.778951676422824</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.53071927595114</v>
+        <v>11.68459457806731</v>
       </c>
       <c r="O5">
-        <v>21.69192913532209</v>
+        <v>14.61928714025249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.85871039765598</v>
+        <v>18.13454557556085</v>
       </c>
       <c r="C6">
-        <v>8.168378222816889</v>
+        <v>13.65967430963764</v>
       </c>
       <c r="D6">
-        <v>11.11843583518839</v>
+        <v>8.648262906687949</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.19360701156567</v>
+        <v>22.30388967566072</v>
       </c>
       <c r="G6">
-        <v>3.629220162116843</v>
+        <v>2.074905654346393</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.45123373610351</v>
+        <v>11.804246264093</v>
       </c>
       <c r="J6">
-        <v>11.26910608779698</v>
+        <v>7.767225857568312</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.53253779526367</v>
+        <v>11.68889025325667</v>
       </c>
       <c r="O6">
-        <v>21.69422569756985</v>
+        <v>14.60790897417164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.03130567922451</v>
+        <v>18.57312132726188</v>
       </c>
       <c r="C7">
-        <v>8.327586981551665</v>
+        <v>13.98489798290454</v>
       </c>
       <c r="D7">
-        <v>11.13841984880864</v>
+        <v>8.786190912471087</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.19776273615133</v>
+        <v>22.5405160799027</v>
       </c>
       <c r="G7">
-        <v>3.628536315020461</v>
+        <v>2.073173154992596</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.41828264879328</v>
+        <v>11.75834809871097</v>
       </c>
       <c r="J7">
-        <v>11.2727711780049</v>
+        <v>7.848726160281701</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.52007473139186</v>
+        <v>11.65939815394559</v>
       </c>
       <c r="O7">
-        <v>21.67882176395459</v>
+        <v>14.68812801459717</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76915029431332</v>
+        <v>20.39681630973911</v>
       </c>
       <c r="C8">
-        <v>8.996266461452015</v>
+        <v>15.33873488402422</v>
       </c>
       <c r="D8">
-        <v>11.2308583240995</v>
+        <v>9.379579084792708</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.23612526865855</v>
+        <v>23.60679217394018</v>
       </c>
       <c r="G8">
-        <v>3.625675757904317</v>
+        <v>2.065765495853458</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.28323893684846</v>
+        <v>11.58588025150544</v>
       </c>
       <c r="J8">
-        <v>11.29408536583211</v>
+        <v>8.210454115754573</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.46901869827426</v>
+        <v>11.53741543972559</v>
       </c>
       <c r="O8">
-        <v>21.62416577281937</v>
+        <v>15.07301466820726</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.11798606419149</v>
+        <v>23.57628784429371</v>
       </c>
       <c r="C9">
-        <v>10.17957228466546</v>
+        <v>17.70423881020283</v>
       </c>
       <c r="D9">
-        <v>11.42640346679809</v>
+        <v>10.47971013624001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.38304240686645</v>
+        <v>25.76066041246967</v>
       </c>
       <c r="G9">
-        <v>3.62062698639689</v>
+        <v>2.052041224985322</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.05585499206543</v>
+        <v>11.37025135553449</v>
       </c>
       <c r="J9">
-        <v>11.35417710474393</v>
+        <v>8.92176584637758</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.38301699867536</v>
+        <v>11.3288974905249</v>
       </c>
       <c r="O9">
-        <v>21.56516284693447</v>
+        <v>15.93935650307519</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.04006742131621</v>
+        <v>25.67491001479678</v>
       </c>
       <c r="C10">
-        <v>10.96700172572564</v>
+        <v>19.26898181899556</v>
       </c>
       <c r="D10">
-        <v>11.57780631586758</v>
+        <v>11.24362847741287</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.53424529550204</v>
+        <v>27.36878233468162</v>
       </c>
       <c r="G10">
-        <v>3.617255814246614</v>
+        <v>2.04239453057179</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.91179775776764</v>
+        <v>11.30080344793947</v>
       </c>
       <c r="J10">
-        <v>11.40927950454197</v>
+        <v>9.441469093856494</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.32839902088519</v>
+        <v>11.19584969094051</v>
       </c>
       <c r="O10">
-        <v>21.55141587239885</v>
+        <v>16.6435589010948</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.44306576625189</v>
+        <v>26.57915163169708</v>
       </c>
       <c r="C11">
-        <v>11.3068698798957</v>
+        <v>19.9440118290777</v>
       </c>
       <c r="D11">
-        <v>11.64814618717227</v>
+        <v>11.58073771068448</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.61228418740232</v>
+        <v>28.10384397295029</v>
       </c>
       <c r="G11">
-        <v>3.615794821331418</v>
+        <v>2.03808826287732</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.85129685992183</v>
+        <v>11.2917558103181</v>
       </c>
       <c r="J11">
-        <v>11.43667316564438</v>
+        <v>9.676609193009298</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.30540408578139</v>
+        <v>11.14005760184967</v>
       </c>
       <c r="O11">
-        <v>21.55162508126851</v>
+        <v>16.97845457964446</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.59320066334078</v>
+        <v>26.91440279932829</v>
       </c>
       <c r="C12">
-        <v>11.43289856802464</v>
+        <v>20.19440968697921</v>
       </c>
       <c r="D12">
-        <v>11.67497397991828</v>
+        <v>11.7068537336976</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.64315092120792</v>
+        <v>28.38256863858251</v>
       </c>
       <c r="G12">
-        <v>3.615251957035813</v>
+        <v>2.036468276009518</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.8291137582342</v>
+        <v>11.29184480899113</v>
       </c>
       <c r="J12">
-        <v>11.44737592248907</v>
+        <v>9.765426870313879</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.29696207632393</v>
+        <v>11.11964465730422</v>
       </c>
       <c r="O12">
-        <v>21.55263524371259</v>
+        <v>17.10734758111483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.56097786740849</v>
+        <v>26.84251772316754</v>
       </c>
       <c r="C13">
-        <v>11.405875346095</v>
+        <v>20.14071312011982</v>
       </c>
       <c r="D13">
-        <v>11.66918792138724</v>
+        <v>11.67976141888182</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.63644500481016</v>
+        <v>28.3225254444249</v>
       </c>
       <c r="G13">
-        <v>3.615368411679732</v>
+        <v>2.036816711514052</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.83385887982118</v>
+        <v>11.29166492521798</v>
       </c>
       <c r="J13">
-        <v>11.44505633232627</v>
+        <v>9.746308927357511</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.29876840611331</v>
+        <v>11.12400860902487</v>
       </c>
       <c r="O13">
-        <v>21.55237626624778</v>
+        <v>17.07949609523724</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.45546753911411</v>
+        <v>26.60687604265269</v>
       </c>
       <c r="C14">
-        <v>11.3172920590081</v>
+        <v>19.96471645062404</v>
       </c>
       <c r="D14">
-        <v>11.65034959661006</v>
+        <v>11.59114441208076</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.61479735446721</v>
+        <v>28.12676798025142</v>
       </c>
       <c r="G14">
-        <v>3.615749951793189</v>
+        <v>2.037954777658984</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.84945724537115</v>
+        <v>11.29169110852835</v>
       </c>
       <c r="J14">
-        <v>11.43754711865849</v>
+        <v>9.683920977631692</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.30470423493961</v>
+        <v>11.13836369591297</v>
       </c>
       <c r="O14">
-        <v>21.55168952415427</v>
+        <v>16.98901717600582</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.39051466596061</v>
+        <v>26.46160819420984</v>
       </c>
       <c r="C15">
-        <v>11.26268336205472</v>
+        <v>19.85623552360575</v>
       </c>
       <c r="D15">
-        <v>11.63883495753544</v>
+        <v>11.53666234714099</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.60170829905409</v>
+        <v>28.00690610001156</v>
       </c>
       <c r="G15">
-        <v>3.61598500659299</v>
+        <v>2.038653235916862</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.85910651995959</v>
+        <v>11.29217308140468</v>
       </c>
       <c r="J15">
-        <v>11.43299023785062</v>
+        <v>9.64567625309998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.30837468523555</v>
+        <v>11.1472506825091</v>
       </c>
       <c r="O15">
-        <v>21.55139014469161</v>
+        <v>16.93386604864516</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.0133899811526</v>
+        <v>25.6148081744452</v>
       </c>
       <c r="C16">
-        <v>10.94441835394476</v>
+        <v>19.22413257687994</v>
       </c>
       <c r="D16">
-        <v>11.5732373048418</v>
+        <v>11.22138415364046</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.52933021536811</v>
+        <v>27.32080291597657</v>
       </c>
       <c r="G16">
-        <v>3.617352749285838</v>
+        <v>2.042677514687711</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.91585319932416</v>
+        <v>11.30187167144043</v>
       </c>
       <c r="J16">
-        <v>11.40753565344069</v>
+        <v>9.426072672414545</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.32993899834742</v>
+        <v>11.19959387965012</v>
       </c>
       <c r="O16">
-        <v>21.55153240236399</v>
+        <v>16.62196393543957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.77774056507351</v>
+        <v>25.08246711842779</v>
       </c>
       <c r="C17">
-        <v>10.74444872845164</v>
+        <v>18.82698421330806</v>
       </c>
       <c r="D17">
-        <v>11.53335717935142</v>
+        <v>11.02527065305515</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.48728866938125</v>
+        <v>26.90069583212895</v>
       </c>
       <c r="G17">
-        <v>3.61821036390798</v>
+        <v>2.045166542581411</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.95195678020621</v>
+        <v>11.31378894302075</v>
       </c>
       <c r="J17">
-        <v>11.39251254494226</v>
+        <v>9.290993258001921</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.34364174106589</v>
+        <v>11.23293984920586</v>
       </c>
       <c r="O17">
-        <v>21.5532763316046</v>
+        <v>16.43433569669891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.64065705790344</v>
+        <v>24.77152626807668</v>
       </c>
       <c r="C18">
-        <v>10.62770698825121</v>
+        <v>18.59508877633291</v>
       </c>
       <c r="D18">
-        <v>11.51055833942305</v>
+        <v>10.91149394682724</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.46397979065349</v>
+        <v>26.65939830919084</v>
       </c>
       <c r="G18">
-        <v>3.618710474979108</v>
+        <v>2.046605960071342</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.97319596108813</v>
+        <v>11.3227487936671</v>
       </c>
       <c r="J18">
-        <v>11.38409105238461</v>
+        <v>9.21318085554668</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.35169745576689</v>
+        <v>11.25256276342323</v>
       </c>
       <c r="O18">
-        <v>21.55488765407045</v>
+        <v>16.32778739299334</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.59398117031665</v>
+        <v>24.66542825169383</v>
       </c>
       <c r="C19">
-        <v>10.58788526456015</v>
+        <v>18.51597566887205</v>
       </c>
       <c r="D19">
-        <v>11.50286352348603</v>
+        <v>10.87280484832518</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.45623807236679</v>
+        <v>26.57776164154407</v>
       </c>
       <c r="G19">
-        <v>3.618880979346859</v>
+        <v>2.047094692900467</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.98046836874529</v>
+        <v>11.326135771375</v>
       </c>
       <c r="J19">
-        <v>11.38127751618218</v>
+        <v>9.186816042606054</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.35445492727506</v>
+        <v>11.25928188218851</v>
       </c>
       <c r="O19">
-        <v>21.55553762797428</v>
+        <v>16.29194792555594</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.80298647423073</v>
+        <v>25.13962697014539</v>
       </c>
       <c r="C20">
-        <v>10.76591459635029</v>
+        <v>18.86961960057021</v>
       </c>
       <c r="D20">
-        <v>11.53758822301538</v>
+        <v>11.04624879883057</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.49167389134474</v>
+        <v>26.94538315556591</v>
       </c>
       <c r="G20">
-        <v>3.618118362481291</v>
+        <v>2.044900782298153</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.94806447476381</v>
+        <v>11.31230046393118</v>
       </c>
       <c r="J20">
-        <v>11.39408911012104</v>
+        <v>9.305385271404006</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.34216502920927</v>
+        <v>11.22934400939076</v>
       </c>
       <c r="O20">
-        <v>21.55302772056625</v>
+        <v>16.45416733702421</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48652632349685</v>
+        <v>26.67628347383804</v>
       </c>
       <c r="C21">
-        <v>11.34338387454454</v>
+        <v>20.01655208162773</v>
       </c>
       <c r="D21">
-        <v>11.65587782335398</v>
+        <v>11.61721544334835</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.62112024025543</v>
+        <v>28.1842574549996</v>
       </c>
       <c r="G21">
-        <v>3.615637602872297</v>
+        <v>2.037620218725259</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.8448558589991</v>
+        <v>11.29158582639858</v>
       </c>
       <c r="J21">
-        <v>11.43974386202921</v>
+        <v>9.702252203714417</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.30295353178759</v>
+        <v>11.13412758767754</v>
       </c>
       <c r="O21">
-        <v>21.55186596266314</v>
+        <v>17.01553682112871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.91881330580526</v>
+        <v>27.63885470606466</v>
       </c>
       <c r="C22">
-        <v>11.70520811130696</v>
+        <v>20.73573969089661</v>
       </c>
       <c r="D22">
-        <v>11.73429468409534</v>
+        <v>11.98138956651063</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.71337741040197</v>
+        <v>28.99607089231499</v>
       </c>
       <c r="G22">
-        <v>3.614076772842622</v>
+        <v>2.032923764793894</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.78164396684327</v>
+        <v>11.29866468752337</v>
       </c>
       <c r="J22">
-        <v>11.4714989522196</v>
+        <v>9.960306531734243</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.27887487497642</v>
+        <v>11.0760796475349</v>
       </c>
       <c r="O22">
-        <v>21.55653309960014</v>
+        <v>17.39451625801392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68944611441733</v>
+        <v>27.12890016058134</v>
       </c>
       <c r="C23">
-        <v>11.51353131839301</v>
+        <v>20.35465361184845</v>
       </c>
       <c r="D23">
-        <v>11.69234717760795</v>
+        <v>11.78785578988636</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.66344326672039</v>
+        <v>28.56262960890465</v>
       </c>
       <c r="G23">
-        <v>3.614904299956344</v>
+        <v>2.035425079513456</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.81499204271833</v>
+        <v>11.2929092402742</v>
       </c>
       <c r="J23">
-        <v>11.45437711166074</v>
+        <v>9.822709641783288</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.29158459903603</v>
+        <v>11.10666632008196</v>
       </c>
       <c r="O23">
-        <v>21.55354531876793</v>
+        <v>17.19114579235611</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.79157779140128</v>
+        <v>25.11380024169889</v>
       </c>
       <c r="C24">
-        <v>10.75621540828649</v>
+        <v>18.85035526539248</v>
       </c>
       <c r="D24">
-        <v>11.53567496559566</v>
+        <v>11.03676777895819</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.48968864816515</v>
+        <v>26.92517929703482</v>
       </c>
       <c r="G24">
-        <v>3.618159934339709</v>
+        <v>2.045020906144747</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.94982268255027</v>
+        <v>11.31296685865423</v>
       </c>
       <c r="J24">
-        <v>11.39337567337392</v>
+        <v>9.298879116821409</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.34283209666859</v>
+        <v>11.23096828361386</v>
       </c>
       <c r="O24">
-        <v>21.55313822159295</v>
+        <v>16.44519733434866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.76461396109466</v>
+        <v>22.75817942052559</v>
       </c>
       <c r="C25">
-        <v>9.873619101091718</v>
+        <v>17.09497369589381</v>
       </c>
       <c r="D25">
-        <v>11.37207259035794</v>
+        <v>10.18955483903566</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.33565905872205</v>
+        <v>25.17265582497329</v>
       </c>
       <c r="G25">
-        <v>3.621933162444452</v>
+        <v>2.055673342129487</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.11334226102194</v>
+        <v>11.41402633932231</v>
       </c>
       <c r="J25">
-        <v>11.33598089355079</v>
+        <v>8.729586769196203</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.40477537886978</v>
+        <v>11.3818813764495</v>
       </c>
       <c r="O25">
-        <v>21.57594023306212</v>
+        <v>15.69304870303585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.86393328001164</v>
+        <v>10.38223455627725</v>
       </c>
       <c r="C2">
-        <v>15.68586679088</v>
+        <v>7.590909922611311</v>
       </c>
       <c r="D2">
-        <v>9.53631831941054</v>
+        <v>5.236759328098341</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.90048334595899</v>
+        <v>15.85642692795773</v>
       </c>
       <c r="G2">
-        <v>2.063814505417883</v>
+        <v>18.74380893884303</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.963847228064855</v>
       </c>
       <c r="I2">
-        <v>11.54693877008772</v>
+        <v>2.870061357328439</v>
       </c>
       <c r="J2">
-        <v>8.308770873961041</v>
+        <v>8.134228618368452</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.75666907570018</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.00963198399341</v>
       </c>
       <c r="N2">
-        <v>11.50639260492811</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.18484406755032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.41137328507288</v>
+      </c>
+      <c r="P2">
+        <v>12.06988967593227</v>
+      </c>
+      <c r="Q2">
+        <v>12.81240381149132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47896473950637</v>
+        <v>9.78499687908403</v>
       </c>
       <c r="C3">
-        <v>14.65706925941953</v>
+        <v>7.364882629478164</v>
       </c>
       <c r="D3">
-        <v>9.077089575317011</v>
+        <v>4.998709498664519</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.05385093819674</v>
+        <v>15.56102703039491</v>
       </c>
       <c r="G3">
-        <v>2.069535041982367</v>
+        <v>18.40851017050323</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.730659259793703</v>
       </c>
       <c r="I3">
-        <v>11.6688013883692</v>
+        <v>2.754665746096713</v>
       </c>
       <c r="J3">
-        <v>8.023898020228984</v>
+        <v>8.158776244273852</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.81063810396511</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.575966758882291</v>
       </c>
       <c r="N3">
-        <v>11.59865747551026</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.86898253867301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.62182379510067</v>
+      </c>
+      <c r="P3">
+        <v>12.19569704796755</v>
+      </c>
+      <c r="Q3">
+        <v>12.77759484773267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57819190673961</v>
+        <v>9.395722084768844</v>
       </c>
       <c r="C4">
-        <v>13.9886588918735</v>
+        <v>7.223129728679225</v>
       </c>
       <c r="D4">
-        <v>8.787796985312022</v>
+        <v>4.846158684206765</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.54329781689544</v>
+        <v>15.38425222008082</v>
       </c>
       <c r="G4">
-        <v>2.073153014900051</v>
+        <v>18.2091588412577</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.583106393072045</v>
       </c>
       <c r="I4">
-        <v>11.75782683986954</v>
+        <v>2.681721157455141</v>
       </c>
       <c r="J4">
-        <v>7.84968124138967</v>
+        <v>8.17626211604907</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.84695102551942</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.297682998966739</v>
       </c>
       <c r="N4">
-        <v>11.65905746723812</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.68908350825127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.46295889091691</v>
+      </c>
+      <c r="P4">
+        <v>12.27405509453008</v>
+      </c>
+      <c r="Q4">
+        <v>12.76119538940176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19838348500511</v>
+        <v>9.227020168994757</v>
       </c>
       <c r="C5">
-        <v>13.70700390503691</v>
+        <v>7.169534926486541</v>
       </c>
       <c r="D5">
-        <v>8.668216450578406</v>
+        <v>4.783622223210639</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.33784087771</v>
+        <v>15.30826335170595</v>
       </c>
       <c r="G5">
-        <v>2.074654642178049</v>
+        <v>18.12042561448217</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.600287917618011</v>
       </c>
       <c r="I5">
-        <v>11.79746694914642</v>
+        <v>2.652063529333091</v>
       </c>
       <c r="J5">
-        <v>7.778951676422824</v>
+        <v>8.182636167363984</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.85865266250722</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.181417654979136</v>
       </c>
       <c r="N5">
-        <v>11.68459457806731</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.61928714025249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.97554362444149</v>
+      </c>
+      <c r="P5">
+        <v>12.30588643920468</v>
+      </c>
+      <c r="Q5">
+        <v>12.75219319434366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13454557556085</v>
+        <v>9.193241398766087</v>
       </c>
       <c r="C6">
-        <v>13.65967430963764</v>
+        <v>7.166604027788585</v>
       </c>
       <c r="D6">
-        <v>8.648262906687949</v>
+        <v>4.774609548261758</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.30388967566072</v>
+        <v>15.28939089989838</v>
       </c>
       <c r="G6">
-        <v>2.074905654346393</v>
+        <v>18.09456036937577</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.610860053653374</v>
       </c>
       <c r="I6">
-        <v>11.804246264093</v>
+        <v>2.648048705172932</v>
       </c>
       <c r="J6">
-        <v>7.767225857568312</v>
+        <v>8.182085526207024</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.85590921321851</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.162028261090791</v>
       </c>
       <c r="N6">
-        <v>11.68889025325667</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.60790897417164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.893588282505</v>
+      </c>
+      <c r="P6">
+        <v>12.31071697603468</v>
+      </c>
+      <c r="Q6">
+        <v>12.74644263336505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57312132726188</v>
+        <v>9.37894253407462</v>
       </c>
       <c r="C7">
-        <v>13.98489798290454</v>
+        <v>7.23869784274295</v>
       </c>
       <c r="D7">
-        <v>8.786190912471087</v>
+        <v>4.849267870579233</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.5405160799027</v>
+        <v>15.36604212218496</v>
       </c>
       <c r="G7">
-        <v>2.073173154992596</v>
+        <v>18.17744993599526</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.582100507893477</v>
       </c>
       <c r="I7">
-        <v>11.75834809871097</v>
+        <v>2.683549260319453</v>
       </c>
       <c r="J7">
-        <v>7.848726160281701</v>
+        <v>8.171860516915542</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.83418144691987</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.296378439015335</v>
       </c>
       <c r="N7">
-        <v>11.65939815394559</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.68812801459717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.45615045808786</v>
+      </c>
+      <c r="P7">
+        <v>12.27323224302192</v>
+      </c>
+      <c r="Q7">
+        <v>12.7492698583261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.39681630973911</v>
+        <v>10.16306503157575</v>
       </c>
       <c r="C8">
-        <v>15.33873488402422</v>
+        <v>7.534627429220195</v>
       </c>
       <c r="D8">
-        <v>9.379579084792708</v>
+        <v>5.161004164874957</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.60679217394018</v>
+        <v>15.73146673567236</v>
       </c>
       <c r="G8">
-        <v>2.065765495853458</v>
+        <v>18.58742377875985</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.884108471400292</v>
       </c>
       <c r="I8">
-        <v>11.58588025150544</v>
+        <v>2.833184008264608</v>
       </c>
       <c r="J8">
-        <v>8.210454115754573</v>
+        <v>8.136276149510262</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.75753364815911</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.862986367629569</v>
       </c>
       <c r="N8">
-        <v>11.53741543972559</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.07301466820726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.80645321790576</v>
+      </c>
+      <c r="P8">
+        <v>12.11156339070435</v>
+      </c>
+      <c r="Q8">
+        <v>12.78386017150036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57628784429371</v>
+        <v>11.54385973036608</v>
       </c>
       <c r="C9">
-        <v>17.70423881020283</v>
+        <v>8.062336922262434</v>
       </c>
       <c r="D9">
-        <v>10.47971013624001</v>
+        <v>5.713667079551291</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.76066041246967</v>
+        <v>16.51138241077457</v>
       </c>
       <c r="G9">
-        <v>2.052041224985322</v>
+        <v>19.49380442336541</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.4430164542455</v>
       </c>
       <c r="I9">
-        <v>11.37025135553449</v>
+        <v>3.107554796082228</v>
       </c>
       <c r="J9">
-        <v>8.92176584637758</v>
+        <v>8.094273752738687</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.65654299781602</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.87528797775617</v>
       </c>
       <c r="N9">
-        <v>11.3288974905249</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.93935650307519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.93931595473131</v>
+      </c>
+      <c r="P9">
+        <v>11.8048172090378</v>
+      </c>
+      <c r="Q9">
+        <v>12.9134161780561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67491001479678</v>
+        <v>12.50689707429667</v>
       </c>
       <c r="C10">
-        <v>19.26898181899556</v>
+        <v>8.470564406526492</v>
       </c>
       <c r="D10">
-        <v>11.24362847741287</v>
+        <v>6.10265589334921</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.36878233468162</v>
+        <v>17.02890829979133</v>
       </c>
       <c r="G10">
-        <v>2.04239453057179</v>
+        <v>20.05849044355773</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.776852008909483</v>
       </c>
       <c r="I10">
-        <v>11.30080344793947</v>
+        <v>3.296882013142793</v>
       </c>
       <c r="J10">
-        <v>9.441469093856494</v>
+        <v>8.056647832609745</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.55185429150495</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.60739966252607</v>
       </c>
       <c r="N10">
-        <v>11.19584969094051</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.6435589010948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.80232009593106</v>
+      </c>
+      <c r="P10">
+        <v>11.58469326721543</v>
+      </c>
+      <c r="Q10">
+        <v>12.98332513970001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57915163169708</v>
+        <v>13.45937236502362</v>
       </c>
       <c r="C11">
-        <v>19.9440118290777</v>
+        <v>8.933090967964915</v>
       </c>
       <c r="D11">
-        <v>11.58073771068448</v>
+        <v>6.400553119576781</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.10384397295029</v>
+        <v>16.68685564429039</v>
       </c>
       <c r="G11">
-        <v>2.03808826287732</v>
+        <v>19.28949289892014</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.200113939920789</v>
       </c>
       <c r="I11">
-        <v>11.2917558103181</v>
+        <v>3.35379966545978</v>
       </c>
       <c r="J11">
-        <v>9.676609193009298</v>
+        <v>7.880825757281682</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.12770676743318</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.36761709986531</v>
       </c>
       <c r="N11">
-        <v>11.14005760184967</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.97845457964446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27.10625493163315</v>
+      </c>
+      <c r="P11">
+        <v>11.51629569038692</v>
+      </c>
+      <c r="Q11">
+        <v>12.59887367332295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91440279932829</v>
+        <v>14.08418259810489</v>
       </c>
       <c r="C12">
-        <v>20.19440968697921</v>
+        <v>9.222086007266794</v>
       </c>
       <c r="D12">
-        <v>11.7068537336976</v>
+        <v>6.566627493983495</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.38256863858251</v>
+        <v>16.30235388794524</v>
       </c>
       <c r="G12">
-        <v>2.036468276009518</v>
+        <v>18.54863066771366</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.25033264342397</v>
       </c>
       <c r="I12">
-        <v>11.29184480899113</v>
+        <v>3.365143282370222</v>
       </c>
       <c r="J12">
-        <v>9.765426870313879</v>
+        <v>7.742272815559308</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.80882129841273</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.85994035509601</v>
       </c>
       <c r="N12">
-        <v>11.11964465730422</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.10734758111483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.12071369682785</v>
+      </c>
+      <c r="P12">
+        <v>11.52873005328556</v>
+      </c>
+      <c r="Q12">
+        <v>12.26775680572444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84251772316754</v>
+        <v>14.49631463093536</v>
       </c>
       <c r="C13">
-        <v>20.14071312011982</v>
+        <v>9.420351373386184</v>
       </c>
       <c r="D13">
-        <v>11.67976141888182</v>
+        <v>6.650300150975165</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.3225254444249</v>
+        <v>15.8289341339235</v>
       </c>
       <c r="G13">
-        <v>2.036816711514052</v>
+        <v>17.72684993883152</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.492579647905029</v>
       </c>
       <c r="I13">
-        <v>11.29166492521798</v>
+        <v>3.345794370189226</v>
       </c>
       <c r="J13">
-        <v>9.746308927357511</v>
+        <v>7.616654402955013</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.53199401035439</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.1870747594093</v>
       </c>
       <c r="N13">
-        <v>11.12400860902487</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.07949609523724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.16274626668881</v>
+      </c>
+      <c r="P13">
+        <v>11.59662502069336</v>
+      </c>
+      <c r="Q13">
+        <v>11.93731826611045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60687604265269</v>
+        <v>14.69035990695399</v>
       </c>
       <c r="C14">
-        <v>19.96471645062404</v>
+        <v>9.524720618952761</v>
       </c>
       <c r="D14">
-        <v>11.59114441208076</v>
+        <v>6.673289861752226</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.12676798025142</v>
+        <v>15.44943808800905</v>
       </c>
       <c r="G14">
-        <v>2.037954777658984</v>
+        <v>17.10228718825484</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.456589877654214</v>
       </c>
       <c r="I14">
-        <v>11.29169110852835</v>
+        <v>3.319905314533917</v>
       </c>
       <c r="J14">
-        <v>9.683920977631692</v>
+        <v>7.533427288927151</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.35560471207741</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.34447093618223</v>
       </c>
       <c r="N14">
-        <v>11.13836369591297</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.98901717600582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.00996704347433</v>
+      </c>
+      <c r="P14">
+        <v>11.6693758837641</v>
+      </c>
+      <c r="Q14">
+        <v>11.70305342049835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.46160819420984</v>
+        <v>14.6886987384075</v>
       </c>
       <c r="C15">
-        <v>19.85623552360575</v>
+        <v>9.53735116891332</v>
       </c>
       <c r="D15">
-        <v>11.53666234714099</v>
+        <v>6.662817747661783</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.00690610001156</v>
+        <v>15.33280481985146</v>
       </c>
       <c r="G15">
-        <v>2.038653235916862</v>
+        <v>16.92368240513494</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.69797708919333</v>
       </c>
       <c r="I15">
-        <v>11.29217308140468</v>
+        <v>3.307462981332797</v>
       </c>
       <c r="J15">
-        <v>9.64567625309998</v>
+        <v>7.515113749920099</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.31839032865435</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.3480810595555</v>
       </c>
       <c r="N15">
-        <v>11.1472506825091</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.93386604864516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.00237121657989</v>
+      </c>
+      <c r="P15">
+        <v>11.69582433667043</v>
+      </c>
+      <c r="Q15">
+        <v>11.64345986941232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.6148081744452</v>
+        <v>14.2373616460899</v>
       </c>
       <c r="C16">
-        <v>19.22413257687994</v>
+        <v>9.342044125860783</v>
       </c>
       <c r="D16">
-        <v>11.22138415364046</v>
+        <v>6.492705891709968</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.32080291597657</v>
+        <v>15.17621633301258</v>
       </c>
       <c r="G16">
-        <v>2.042677514687711</v>
+        <v>16.79779194537243</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.480833297638669</v>
       </c>
       <c r="I16">
-        <v>11.30187167144043</v>
+        <v>3.233465272876791</v>
       </c>
       <c r="J16">
-        <v>9.426072672414545</v>
+        <v>7.552663741147718</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.41283805716689</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.99809491786758</v>
       </c>
       <c r="N16">
-        <v>11.19959387965012</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.62196393543957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.961672510482463</v>
+      </c>
+      <c r="P16">
+        <v>11.7607568921661</v>
+      </c>
+      <c r="Q16">
+        <v>11.66797456028635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.08246711842779</v>
+        <v>13.77381786405674</v>
       </c>
       <c r="C17">
-        <v>18.82698421330806</v>
+        <v>9.133389361720221</v>
       </c>
       <c r="D17">
-        <v>11.02527065305515</v>
+        <v>6.347241952469814</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.90069583212895</v>
+        <v>15.2643759052048</v>
       </c>
       <c r="G17">
-        <v>2.045166542581411</v>
+        <v>17.04290565590967</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.720667691421953</v>
       </c>
       <c r="I17">
-        <v>11.31378894302075</v>
+        <v>3.189970271228129</v>
       </c>
       <c r="J17">
-        <v>9.290993258001921</v>
+        <v>7.626289640777194</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.57831133243903</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.63739744502164</v>
       </c>
       <c r="N17">
-        <v>11.23293984920586</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.43433569669891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.19573357904795</v>
+      </c>
+      <c r="P17">
+        <v>11.77389712784751</v>
+      </c>
+      <c r="Q17">
+        <v>11.81311935224832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.77152626807668</v>
+        <v>13.26159518292189</v>
       </c>
       <c r="C18">
-        <v>18.59508877633291</v>
+        <v>8.877721135162359</v>
       </c>
       <c r="D18">
-        <v>10.91149394682724</v>
+        <v>6.204804501352791</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.65939830919084</v>
+        <v>15.58113947707483</v>
       </c>
       <c r="G18">
-        <v>2.046605960071342</v>
+        <v>17.65072875753812</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.44171821376644</v>
       </c>
       <c r="I18">
-        <v>11.3227487936671</v>
+        <v>3.167644304440723</v>
       </c>
       <c r="J18">
-        <v>9.21318085554668</v>
+        <v>7.740648644709467</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.83277247401222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.22949640662728</v>
       </c>
       <c r="N18">
-        <v>11.25256276342323</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.32778739299334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.84995879147829</v>
+      </c>
+      <c r="P18">
+        <v>11.75268319538746</v>
+      </c>
+      <c r="Q18">
+        <v>12.08338491247378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66542825169383</v>
+        <v>12.72992444680882</v>
       </c>
       <c r="C19">
-        <v>18.51597566887205</v>
+        <v>8.641561994400496</v>
       </c>
       <c r="D19">
-        <v>10.87280484832518</v>
+        <v>6.082694439731235</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.57776164154407</v>
+        <v>16.02252795307286</v>
       </c>
       <c r="G19">
-        <v>2.047094692900467</v>
+        <v>18.44631403272206</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.186392097541086</v>
       </c>
       <c r="I19">
-        <v>11.326135771375</v>
+        <v>3.175850497290897</v>
       </c>
       <c r="J19">
-        <v>9.186816042606054</v>
+        <v>7.870010630371289</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.12215164749004</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.81786428896308</v>
       </c>
       <c r="N19">
-        <v>11.25928188218851</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.29194792555594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.14984165001711</v>
+      </c>
+      <c r="P19">
+        <v>11.71981674584231</v>
+      </c>
+      <c r="Q19">
+        <v>12.41135299393506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.13962697014539</v>
+        <v>12.22893816960542</v>
       </c>
       <c r="C20">
-        <v>18.86961960057021</v>
+        <v>8.412591938287928</v>
       </c>
       <c r="D20">
-        <v>11.04624879883057</v>
+        <v>6.013953823060869</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.94538315556591</v>
+        <v>16.84049961591925</v>
       </c>
       <c r="G20">
-        <v>2.044900782298153</v>
+        <v>19.81674464096652</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.686195194459064</v>
       </c>
       <c r="I20">
-        <v>11.31230046393118</v>
+        <v>3.256154030520151</v>
       </c>
       <c r="J20">
-        <v>9.305385271404006</v>
+        <v>8.051125020028611</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.53652620078088</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.42292392879169</v>
       </c>
       <c r="N20">
-        <v>11.22934400939076</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.45416733702421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.28366909721439</v>
+      </c>
+      <c r="P20">
+        <v>11.63961895378666</v>
+      </c>
+      <c r="Q20">
+        <v>12.92557544827007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.67628347383804</v>
+        <v>12.84020085600305</v>
       </c>
       <c r="C21">
-        <v>20.01655208162773</v>
+        <v>8.664218265865173</v>
       </c>
       <c r="D21">
-        <v>11.61721544334835</v>
+        <v>6.276486618448707</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.1842574549996</v>
+        <v>17.35281294468139</v>
       </c>
       <c r="G21">
-        <v>2.037620218725259</v>
+        <v>20.45566650840376</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.027645761167404</v>
       </c>
       <c r="I21">
-        <v>11.29158582639858</v>
+        <v>3.403431118712749</v>
       </c>
       <c r="J21">
-        <v>9.702252203714417</v>
+        <v>8.056857689275553</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.53519449678328</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.88378956895982</v>
       </c>
       <c r="N21">
-        <v>11.13412758767754</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.01553682112871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36.00207363484421</v>
+      </c>
+      <c r="P21">
+        <v>11.47088338371424</v>
+      </c>
+      <c r="Q21">
+        <v>13.06782417720791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.63885470606466</v>
+        <v>13.26689718199571</v>
       </c>
       <c r="C22">
-        <v>20.73573969089661</v>
+        <v>8.822214287850921</v>
       </c>
       <c r="D22">
-        <v>11.98138956651063</v>
+        <v>6.445206738370676</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.99607089231499</v>
+        <v>17.67576761158348</v>
       </c>
       <c r="G22">
-        <v>2.032923764793894</v>
+        <v>20.85263994663071</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.217768758655185</v>
       </c>
       <c r="I22">
-        <v>11.29866468752337</v>
+        <v>3.492611869317658</v>
       </c>
       <c r="J22">
-        <v>9.960306531734243</v>
+        <v>8.059979160996861</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.53339487042375</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.19903169975916</v>
       </c>
       <c r="N22">
-        <v>11.0760796475349</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.39451625801392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.26981235809878</v>
+      </c>
+      <c r="P22">
+        <v>11.36271357594817</v>
+      </c>
+      <c r="Q22">
+        <v>13.15697149454656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12890016058134</v>
+        <v>13.05387940686284</v>
       </c>
       <c r="C23">
-        <v>20.35465361184845</v>
+        <v>8.721110515299143</v>
       </c>
       <c r="D23">
-        <v>11.78785578988636</v>
+        <v>6.35198344065395</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.56262960890465</v>
+        <v>17.52103369142027</v>
       </c>
       <c r="G23">
-        <v>2.035425079513456</v>
+        <v>20.67206238144563</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.116728031614215</v>
       </c>
       <c r="I23">
-        <v>11.2929092402742</v>
+        <v>3.441829739969099</v>
       </c>
       <c r="J23">
-        <v>9.822709641783288</v>
+        <v>8.063240835843196</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.54908004520218</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.03159722275912</v>
       </c>
       <c r="N23">
-        <v>11.10666632008196</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.19114579235611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.59813860580721</v>
+      </c>
+      <c r="P23">
+        <v>11.42128459771588</v>
+      </c>
+      <c r="Q23">
+        <v>13.12215654922875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.11380024169889</v>
+        <v>12.18692093582388</v>
       </c>
       <c r="C24">
-        <v>18.85035526539248</v>
+        <v>8.3580365684659</v>
       </c>
       <c r="D24">
-        <v>11.03676777895819</v>
+        <v>5.991942201712043</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.92517929703482</v>
+        <v>16.91150850695867</v>
       </c>
       <c r="G24">
-        <v>2.045020906144747</v>
+        <v>19.94765810858284</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.727935107522275</v>
       </c>
       <c r="I24">
-        <v>11.31296685865423</v>
+        <v>3.251340081278234</v>
       </c>
       <c r="J24">
-        <v>9.298879116821409</v>
+        <v>8.072981226690169</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.59265643211707</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.37355288651419</v>
       </c>
       <c r="N24">
-        <v>11.23096828361386</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.44519733434866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.95060201127043</v>
+      </c>
+      <c r="P24">
+        <v>11.64296524493519</v>
+      </c>
+      <c r="Q24">
+        <v>12.98069418434888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.75817942052559</v>
+        <v>11.16738021953305</v>
       </c>
       <c r="C25">
-        <v>17.09497369589381</v>
+        <v>7.950087810499526</v>
       </c>
       <c r="D25">
-        <v>10.18955483903566</v>
+        <v>5.5762616299938</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.17265582497329</v>
+        <v>16.26803416125557</v>
       </c>
       <c r="G25">
-        <v>2.055673342129487</v>
+        <v>19.19171363675779</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.294967687525884</v>
       </c>
       <c r="I25">
-        <v>11.41402633932231</v>
+        <v>3.039267183499452</v>
       </c>
       <c r="J25">
-        <v>8.729586769196203</v>
+        <v>8.09540300441229</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.65766756672306</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.61281270191193</v>
       </c>
       <c r="N25">
-        <v>11.3818813764495</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.69304870303585</v>
+        <v>30.87172283774374</v>
+      </c>
+      <c r="P25">
+        <v>11.88524530679219</v>
+      </c>
+      <c r="Q25">
+        <v>12.8529244109599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.38223455627725</v>
+        <v>10.23998916513162</v>
       </c>
       <c r="C2">
-        <v>7.590909922611311</v>
+        <v>7.597941274961248</v>
       </c>
       <c r="D2">
-        <v>5.236759328098341</v>
+        <v>5.287547684414333</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.85642692795773</v>
+        <v>15.60452309030564</v>
       </c>
       <c r="G2">
-        <v>18.74380893884303</v>
+        <v>17.57223485037308</v>
       </c>
       <c r="H2">
-        <v>1.963847228064855</v>
+        <v>1.966446408766654</v>
       </c>
       <c r="I2">
-        <v>2.870061357328439</v>
+        <v>2.899394056313126</v>
       </c>
       <c r="J2">
-        <v>8.134228618368452</v>
+        <v>8.590691553988391</v>
       </c>
       <c r="K2">
-        <v>12.75666907570018</v>
+        <v>12.48054152277142</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.19262035126521</v>
       </c>
       <c r="M2">
-        <v>10.00963198399341</v>
+        <v>7.284338036759641</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.41137328507288</v>
+        <v>9.999680215215392</v>
       </c>
       <c r="P2">
-        <v>12.06988967593227</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.81240381149132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.41543343149924</v>
+      </c>
+      <c r="R2">
+        <v>12.0274558980131</v>
+      </c>
+      <c r="S2">
+        <v>12.63123426007627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.78499687908403</v>
+        <v>9.690013294897797</v>
       </c>
       <c r="C3">
-        <v>7.364882629478164</v>
+        <v>7.298637185099145</v>
       </c>
       <c r="D3">
-        <v>4.998709498664519</v>
+        <v>5.035467145127822</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.56102703039491</v>
+        <v>15.3456006322806</v>
       </c>
       <c r="G3">
-        <v>18.40851017050323</v>
+        <v>17.30256055660042</v>
       </c>
       <c r="H3">
-        <v>1.730659259793703</v>
+        <v>1.735184515449186</v>
       </c>
       <c r="I3">
-        <v>2.754665746096713</v>
+        <v>2.796267776028207</v>
       </c>
       <c r="J3">
-        <v>8.158776244273852</v>
+        <v>8.597161512902728</v>
       </c>
       <c r="K3">
-        <v>12.81063810396511</v>
+        <v>12.55364844144836</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.3397392133852</v>
       </c>
       <c r="M3">
-        <v>9.575966758882291</v>
+        <v>7.262458842451489</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.62182379510067</v>
+        <v>9.568874126961163</v>
       </c>
       <c r="P3">
-        <v>12.19569704796755</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.77759484773267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.6290205234129</v>
+      </c>
+      <c r="R3">
+        <v>12.14695343401302</v>
+      </c>
+      <c r="S3">
+        <v>12.61823081460777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.395722084768844</v>
+        <v>9.331598052103159</v>
       </c>
       <c r="C4">
-        <v>7.223129728679225</v>
+        <v>7.110875915635477</v>
       </c>
       <c r="D4">
-        <v>4.846158684206765</v>
+        <v>4.873893913396097</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.38425222008082</v>
+        <v>15.19043827344435</v>
       </c>
       <c r="G4">
-        <v>18.2091588412577</v>
+        <v>17.14480624697352</v>
       </c>
       <c r="H4">
-        <v>1.583106393072045</v>
+        <v>1.588840481419343</v>
       </c>
       <c r="I4">
-        <v>2.681721157455141</v>
+        <v>2.731211928756702</v>
       </c>
       <c r="J4">
-        <v>8.17626211604907</v>
+        <v>8.602100047139587</v>
       </c>
       <c r="K4">
-        <v>12.84695102551942</v>
+        <v>12.60065301686145</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.43295079459146</v>
       </c>
       <c r="M4">
-        <v>9.297682998966739</v>
+        <v>7.268717496100319</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.46295889091691</v>
+        <v>9.29249948590766</v>
       </c>
       <c r="P4">
-        <v>12.27405509453008</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.76119538940176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.4722074534162</v>
+      </c>
+      <c r="R4">
+        <v>12.22151052303046</v>
+      </c>
+      <c r="S4">
+        <v>12.61428667289258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.227020168994757</v>
+        <v>9.175967684605359</v>
       </c>
       <c r="C5">
-        <v>7.169534926486541</v>
+        <v>7.038949064704407</v>
       </c>
       <c r="D5">
-        <v>4.783622223210639</v>
+        <v>4.807600987883044</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.30826335170595</v>
+        <v>15.12301986318014</v>
       </c>
       <c r="G5">
-        <v>18.12042561448217</v>
+        <v>17.07305325286725</v>
       </c>
       <c r="H5">
-        <v>1.600287917618011</v>
+        <v>1.593898750150154</v>
       </c>
       <c r="I5">
-        <v>2.652063529333091</v>
+        <v>2.70511815513423</v>
       </c>
       <c r="J5">
-        <v>8.182636167363984</v>
+        <v>8.603005901661911</v>
       </c>
       <c r="K5">
-        <v>12.85865266250722</v>
+        <v>12.61652389148225</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.46802569913741</v>
       </c>
       <c r="M5">
-        <v>9.181417654979136</v>
+        <v>7.274221258987369</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.97554362444149</v>
+        <v>9.177062236260479</v>
       </c>
       <c r="P5">
-        <v>12.30588643920468</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.75219319434366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.98566612863623</v>
+      </c>
+      <c r="R5">
+        <v>12.25184938620022</v>
+      </c>
+      <c r="S5">
+        <v>12.61013628084116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.193241398766087</v>
+        <v>9.144425443120616</v>
       </c>
       <c r="C6">
-        <v>7.166604027788585</v>
+        <v>7.033737918725036</v>
       </c>
       <c r="D6">
-        <v>4.774609548261758</v>
+        <v>4.797980352460853</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.28939089989838</v>
+        <v>15.1055373496117</v>
       </c>
       <c r="G6">
-        <v>18.09456036937577</v>
+        <v>17.04972837248107</v>
       </c>
       <c r="H6">
-        <v>1.610860053653374</v>
+        <v>1.604383701423464</v>
       </c>
       <c r="I6">
-        <v>2.648048705172932</v>
+        <v>2.702055752716698</v>
       </c>
       <c r="J6">
-        <v>8.182085526207024</v>
+        <v>8.601524997882141</v>
       </c>
       <c r="K6">
-        <v>12.85590921321851</v>
+        <v>12.61454730422021</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.46945844218513</v>
       </c>
       <c r="M6">
-        <v>9.162028261090791</v>
+        <v>7.272988013434128</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.893588282505</v>
+        <v>9.157822907895509</v>
       </c>
       <c r="P6">
-        <v>12.31071697603468</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.74644263336505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.90386041243972</v>
+      </c>
+      <c r="R6">
+        <v>12.25648235873607</v>
+      </c>
+      <c r="S6">
+        <v>12.6051917990243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.37894253407462</v>
+        <v>9.312650948894705</v>
       </c>
       <c r="C7">
-        <v>7.23869784274295</v>
+        <v>7.124023490419478</v>
       </c>
       <c r="D7">
-        <v>4.849267870579233</v>
+        <v>4.879677308648979</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.36604212218496</v>
+        <v>15.16134187353091</v>
       </c>
       <c r="G7">
-        <v>18.17744993599526</v>
+        <v>17.19726176243772</v>
       </c>
       <c r="H7">
-        <v>1.582100507893477</v>
+        <v>1.587753910990609</v>
       </c>
       <c r="I7">
-        <v>2.683549260319453</v>
+        <v>2.733571376647047</v>
       </c>
       <c r="J7">
-        <v>8.171860516915542</v>
+        <v>8.566618745895491</v>
       </c>
       <c r="K7">
-        <v>12.83418144691987</v>
+        <v>12.58391102847524</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.41762182372504</v>
       </c>
       <c r="M7">
-        <v>9.296378439015335</v>
+        <v>7.259213676667218</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.45615045808786</v>
+        <v>9.288072250117608</v>
       </c>
       <c r="P7">
-        <v>12.27323224302192</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.7492698583261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.46526907608397</v>
+      </c>
+      <c r="R7">
+        <v>12.22040892431596</v>
+      </c>
+      <c r="S7">
+        <v>12.59510993227821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.16306503157575</v>
+        <v>10.0292751027233</v>
       </c>
       <c r="C8">
-        <v>7.534627429220195</v>
+        <v>7.505641368737575</v>
       </c>
       <c r="D8">
-        <v>5.161004164874957</v>
+        <v>5.215543595709007</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.73146673567236</v>
+        <v>15.45665092583999</v>
       </c>
       <c r="G8">
-        <v>18.58742377875985</v>
+        <v>17.71457380364965</v>
       </c>
       <c r="H8">
-        <v>1.884108471400292</v>
+        <v>1.887088395865075</v>
       </c>
       <c r="I8">
-        <v>2.833184008264608</v>
+        <v>2.866492296871071</v>
       </c>
       <c r="J8">
-        <v>8.136276149510262</v>
+        <v>8.485932162521836</v>
       </c>
       <c r="K8">
-        <v>12.75753364815911</v>
+        <v>12.47459104401593</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.2166709579609</v>
       </c>
       <c r="M8">
-        <v>9.862986367629569</v>
+        <v>7.251644361971313</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.80645321790576</v>
+        <v>9.844054848345184</v>
       </c>
       <c r="P8">
-        <v>12.11156339070435</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.78386017150036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.81113367212903</v>
+      </c>
+      <c r="R8">
+        <v>12.06608713750348</v>
+      </c>
+      <c r="S8">
+        <v>12.58621696172158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.54385973036608</v>
+        <v>11.30100901638022</v>
       </c>
       <c r="C9">
-        <v>8.062336922262434</v>
+        <v>8.203887534020627</v>
       </c>
       <c r="D9">
-        <v>5.713667079551291</v>
+        <v>5.802161156424309</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.51138241077457</v>
+        <v>16.13433602544107</v>
       </c>
       <c r="G9">
-        <v>19.49380442336541</v>
+        <v>18.52973917655147</v>
       </c>
       <c r="H9">
-        <v>2.4430164542455</v>
+        <v>2.441261215853903</v>
       </c>
       <c r="I9">
-        <v>3.107554796082228</v>
+        <v>3.11097264791056</v>
       </c>
       <c r="J9">
-        <v>8.094273752738687</v>
+        <v>8.453043758032777</v>
       </c>
       <c r="K9">
-        <v>12.65654299781602</v>
+        <v>12.31565243974208</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.87833232142409</v>
       </c>
       <c r="M9">
-        <v>10.87528797775617</v>
+        <v>7.416708812793457</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.93931595473131</v>
+        <v>10.84819829582246</v>
       </c>
       <c r="P9">
-        <v>11.8048172090378</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.9134161780561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.93663926709541</v>
+      </c>
+      <c r="R9">
+        <v>11.77554301857545</v>
+      </c>
+      <c r="S9">
+        <v>12.64985189140452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.50689707429667</v>
+        <v>12.18445751357257</v>
       </c>
       <c r="C10">
-        <v>8.470564406526492</v>
+        <v>8.707648175399434</v>
       </c>
       <c r="D10">
-        <v>6.10265589334921</v>
+        <v>6.225872326208946</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.02890829979133</v>
+        <v>16.5221134625343</v>
       </c>
       <c r="G10">
-        <v>20.05849044355773</v>
+        <v>19.49790913111368</v>
       </c>
       <c r="H10">
-        <v>2.776852008909483</v>
+        <v>2.771385114735664</v>
       </c>
       <c r="I10">
-        <v>3.296882013142793</v>
+        <v>3.279048785536756</v>
       </c>
       <c r="J10">
-        <v>8.056647832609745</v>
+        <v>8.25011251858316</v>
       </c>
       <c r="K10">
-        <v>12.55185429150495</v>
+        <v>12.1447610040157</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.5997940055914</v>
       </c>
       <c r="M10">
-        <v>11.60739966252607</v>
+        <v>7.567308852228849</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.80232009593106</v>
+        <v>11.55978423577795</v>
       </c>
       <c r="P10">
-        <v>11.58469326721543</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.98332513970001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.79405678570848</v>
+      </c>
+      <c r="R10">
+        <v>11.57005459899099</v>
+      </c>
+      <c r="S10">
+        <v>12.62980570079968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.45937236502362</v>
+        <v>13.10984365352827</v>
       </c>
       <c r="C11">
-        <v>8.933090967964915</v>
+        <v>9.159121692986353</v>
       </c>
       <c r="D11">
-        <v>6.400553119576781</v>
+        <v>6.554094135238773</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.68685564429039</v>
+        <v>16.06599338980095</v>
       </c>
       <c r="G11">
-        <v>19.28949289892014</v>
+        <v>19.75044326794179</v>
       </c>
       <c r="H11">
-        <v>3.200113939920789</v>
+        <v>3.194783846139817</v>
       </c>
       <c r="I11">
-        <v>3.35379966545978</v>
+        <v>3.328709823091534</v>
       </c>
       <c r="J11">
-        <v>7.880825757281682</v>
+        <v>7.794494593284623</v>
       </c>
       <c r="K11">
-        <v>12.12770676743318</v>
+        <v>11.70720041212062</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.25197782487648</v>
       </c>
       <c r="M11">
-        <v>12.36761709986531</v>
+        <v>7.305400308295313</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.10625493163315</v>
+        <v>12.28534435756819</v>
       </c>
       <c r="P11">
-        <v>11.51629569038692</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.59887367332295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>27.09563038501869</v>
+      </c>
+      <c r="R11">
+        <v>11.53794035950322</v>
+      </c>
+      <c r="S11">
+        <v>12.17375800915162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.08418259810489</v>
+        <v>13.73457942058998</v>
       </c>
       <c r="C12">
-        <v>9.222086007266794</v>
+        <v>9.425183792784946</v>
       </c>
       <c r="D12">
-        <v>6.566627493983495</v>
+        <v>6.730986991086589</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.30235388794524</v>
+        <v>15.64893236826633</v>
       </c>
       <c r="G12">
-        <v>18.54863066771366</v>
+        <v>19.50773142108194</v>
       </c>
       <c r="H12">
-        <v>4.25033264342397</v>
+        <v>4.24656078129434</v>
       </c>
       <c r="I12">
-        <v>3.365143282370222</v>
+        <v>3.337146194318562</v>
       </c>
       <c r="J12">
-        <v>7.742272815559308</v>
+        <v>7.57916732641165</v>
       </c>
       <c r="K12">
-        <v>11.80882129841273</v>
+        <v>11.40878141493351</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.04974057232574</v>
       </c>
       <c r="M12">
-        <v>12.85994035509601</v>
+        <v>7.070268304396395</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.12071369682785</v>
+        <v>12.76105891094323</v>
       </c>
       <c r="P12">
-        <v>11.52873005328556</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.26775680572444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.10902287679652</v>
+      </c>
+      <c r="R12">
+        <v>11.57955407475641</v>
+      </c>
+      <c r="S12">
+        <v>11.82929105416259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.49631463093536</v>
+        <v>14.17221426864766</v>
       </c>
       <c r="C13">
-        <v>9.420351373386184</v>
+        <v>9.605174887882548</v>
       </c>
       <c r="D13">
-        <v>6.650300150975165</v>
+        <v>6.80520967047087</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15.8289341339235</v>
+        <v>15.22937180993659</v>
       </c>
       <c r="G13">
-        <v>17.72684993883152</v>
+        <v>18.6038500426457</v>
       </c>
       <c r="H13">
-        <v>5.492579647905029</v>
+        <v>5.490168484012234</v>
       </c>
       <c r="I13">
-        <v>3.345794370189226</v>
+        <v>3.320176183252332</v>
       </c>
       <c r="J13">
-        <v>7.616654402955013</v>
+        <v>7.533956615008691</v>
       </c>
       <c r="K13">
-        <v>11.53199401035439</v>
+        <v>11.18658170242918</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.925223402125722</v>
       </c>
       <c r="M13">
-        <v>13.1870747594093</v>
+        <v>6.836731304189944</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.16274626668881</v>
+        <v>13.09163311842634</v>
       </c>
       <c r="P13">
-        <v>11.59662502069336</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.93731826611045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.15062436644177</v>
+      </c>
+      <c r="R13">
+        <v>11.66590807429322</v>
+      </c>
+      <c r="S13">
+        <v>11.54612478710095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.69035990695399</v>
+        <v>14.39582001896703</v>
       </c>
       <c r="C14">
-        <v>9.524720618952761</v>
+        <v>9.699432303551582</v>
       </c>
       <c r="D14">
-        <v>6.673289861752226</v>
+        <v>6.812369262294478</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15.44943808800905</v>
+        <v>14.92544119248488</v>
       </c>
       <c r="G14">
-        <v>17.10228718825484</v>
+        <v>17.66892982654057</v>
       </c>
       <c r="H14">
-        <v>6.456589877654214</v>
+        <v>6.457879327814908</v>
       </c>
       <c r="I14">
-        <v>3.319905314533917</v>
+        <v>3.298593049785849</v>
       </c>
       <c r="J14">
-        <v>7.533427288927151</v>
+        <v>7.565722971664346</v>
       </c>
       <c r="K14">
-        <v>11.35560471207741</v>
+        <v>11.06090913313563</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.866393930960612</v>
       </c>
       <c r="M14">
-        <v>13.34447093618223</v>
+        <v>6.673427459630249</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.00996704347433</v>
+        <v>13.26056080644877</v>
       </c>
       <c r="P14">
-        <v>11.6693758837641</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.70305342049835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.99732783912978</v>
+      </c>
+      <c r="R14">
+        <v>11.74397096476196</v>
+      </c>
+      <c r="S14">
+        <v>11.37006427488241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.6886987384075</v>
+        <v>14.40659543912127</v>
       </c>
       <c r="C15">
-        <v>9.53735116891332</v>
+        <v>9.711070681336432</v>
       </c>
       <c r="D15">
-        <v>6.662817747661783</v>
+        <v>6.794029186783565</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15.33280481985146</v>
+        <v>14.84342912344703</v>
       </c>
       <c r="G15">
-        <v>16.92368240513494</v>
+        <v>17.30775940522801</v>
       </c>
       <c r="H15">
-        <v>6.69797708919333</v>
+        <v>6.699172038023979</v>
       </c>
       <c r="I15">
-        <v>3.307462981332797</v>
+        <v>3.288856632572453</v>
       </c>
       <c r="J15">
-        <v>7.515113749920099</v>
+        <v>7.601829587465643</v>
       </c>
       <c r="K15">
-        <v>11.31839032865435</v>
+        <v>11.04142256647073</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.862709664155545</v>
       </c>
       <c r="M15">
-        <v>13.3480810595555</v>
+        <v>6.632067226487844</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.00237121657989</v>
+        <v>13.27098241564059</v>
       </c>
       <c r="P15">
-        <v>11.69582433667043</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.64345986941232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.989855219584264</v>
+      </c>
+      <c r="R15">
+        <v>11.76871556467625</v>
+      </c>
+      <c r="S15">
+        <v>11.33527126042456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.2373616460899</v>
+        <v>14.00131447978404</v>
       </c>
       <c r="C16">
-        <v>9.342044125860783</v>
+        <v>9.520049052889938</v>
       </c>
       <c r="D16">
-        <v>6.492705891709968</v>
+        <v>6.589925429548125</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.17621633301258</v>
+        <v>14.82160174701235</v>
       </c>
       <c r="G16">
-        <v>16.79779194537243</v>
+        <v>16.31681367010913</v>
       </c>
       <c r="H16">
-        <v>6.480833297638669</v>
+        <v>6.481702982574691</v>
       </c>
       <c r="I16">
-        <v>3.233465272876791</v>
+        <v>3.226735322090081</v>
       </c>
       <c r="J16">
-        <v>7.552663741147718</v>
+        <v>7.87541151180096</v>
       </c>
       <c r="K16">
-        <v>11.41283805716689</v>
+        <v>11.17915590031706</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.98653208567619</v>
       </c>
       <c r="M16">
-        <v>12.99809491786758</v>
+        <v>6.650315513013243</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.961672510482463</v>
+        <v>12.95426038983389</v>
       </c>
       <c r="P16">
-        <v>11.7607568921661</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.66797456028635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.953363666777665</v>
+      </c>
+      <c r="R16">
+        <v>11.81002227236302</v>
+      </c>
+      <c r="S16">
+        <v>11.44739720253443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.77381786405674</v>
+        <v>13.55422274198034</v>
       </c>
       <c r="C17">
-        <v>9.133389361720221</v>
+        <v>9.312676465525263</v>
       </c>
       <c r="D17">
-        <v>6.347241952469814</v>
+        <v>6.430704224335256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.2643759052048</v>
+        <v>14.9571849269171</v>
       </c>
       <c r="G17">
-        <v>17.04290565590967</v>
+        <v>16.1892217157871</v>
       </c>
       <c r="H17">
-        <v>5.720667691421953</v>
+        <v>5.721388036730048</v>
       </c>
       <c r="I17">
-        <v>3.189970271228129</v>
+        <v>3.189754030135566</v>
       </c>
       <c r="J17">
-        <v>7.626289640777194</v>
+        <v>8.051347125705819</v>
       </c>
       <c r="K17">
-        <v>11.57831133243903</v>
+        <v>11.34863410116795</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.11870806922426</v>
       </c>
       <c r="M17">
-        <v>12.63739744502164</v>
+        <v>6.744342366535426</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.19573357904795</v>
+        <v>12.60833418285993</v>
       </c>
       <c r="P17">
-        <v>11.77389712784751</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.81311935224832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.19032745080107</v>
+      </c>
+      <c r="R17">
+        <v>11.80719773665912</v>
+      </c>
+      <c r="S17">
+        <v>11.61974231822357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.26159518292189</v>
+        <v>13.03852358355775</v>
       </c>
       <c r="C18">
-        <v>8.877721135162359</v>
+        <v>9.062550902872987</v>
       </c>
       <c r="D18">
-        <v>6.204804501352791</v>
+        <v>6.285512843321256</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.58113947707483</v>
+        <v>15.27429800347475</v>
       </c>
       <c r="G18">
-        <v>17.65072875753812</v>
+        <v>16.62076994771268</v>
       </c>
       <c r="H18">
-        <v>4.44171821376644</v>
+        <v>4.440811608575259</v>
       </c>
       <c r="I18">
-        <v>3.167644304440723</v>
+        <v>3.169154891502137</v>
       </c>
       <c r="J18">
-        <v>7.740648644709467</v>
+        <v>8.19957794563182</v>
       </c>
       <c r="K18">
-        <v>11.83277247401222</v>
+        <v>11.58181080324885</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.28693521372241</v>
       </c>
       <c r="M18">
-        <v>12.22949640662728</v>
+        <v>6.921748256795889</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.84995879147829</v>
+        <v>12.20656593467104</v>
       </c>
       <c r="P18">
-        <v>11.75268319538746</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.08338491247378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.84597288718885</v>
+      </c>
+      <c r="R18">
+        <v>11.7715404576892</v>
+      </c>
+      <c r="S18">
+        <v>11.88446415061154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.72992444680882</v>
+        <v>12.4893783237568</v>
       </c>
       <c r="C19">
-        <v>8.641561994400496</v>
+        <v>8.839758466839271</v>
       </c>
       <c r="D19">
-        <v>6.082694439731235</v>
+        <v>6.167569985057225</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.02252795307286</v>
+        <v>15.68782683551251</v>
       </c>
       <c r="G19">
-        <v>18.44631403272206</v>
+        <v>17.33466813148467</v>
       </c>
       <c r="H19">
-        <v>3.186392097541086</v>
+        <v>3.184836223437254</v>
       </c>
       <c r="I19">
-        <v>3.175850497290897</v>
+        <v>3.177255337481604</v>
       </c>
       <c r="J19">
-        <v>7.870010630371289</v>
+        <v>8.325510008585365</v>
       </c>
       <c r="K19">
-        <v>12.12215164749004</v>
+        <v>11.83461932191562</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.46286943175972</v>
       </c>
       <c r="M19">
-        <v>11.81786428896308</v>
+        <v>7.137224566470254</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.14984165001711</v>
+        <v>11.79607353314075</v>
       </c>
       <c r="P19">
-        <v>11.71981674584231</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.41135299393506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>23.14597041004547</v>
+      </c>
+      <c r="R19">
+        <v>11.72401653599274</v>
+      </c>
+      <c r="S19">
+        <v>12.18751723141212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.22893816960542</v>
+        <v>11.93393426784255</v>
       </c>
       <c r="C20">
-        <v>8.412591938287928</v>
+        <v>8.64463935743599</v>
       </c>
       <c r="D20">
-        <v>6.013953823060869</v>
+        <v>6.120355669791806</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.84049961591925</v>
+        <v>16.40411011047481</v>
       </c>
       <c r="G20">
-        <v>19.81674464096652</v>
+        <v>18.86578299730659</v>
       </c>
       <c r="H20">
-        <v>2.686195194459064</v>
+        <v>2.681974647900164</v>
       </c>
       <c r="I20">
-        <v>3.256154030520151</v>
+        <v>3.248245655345288</v>
       </c>
       <c r="J20">
-        <v>8.051125020028611</v>
+        <v>8.392252255014903</v>
       </c>
       <c r="K20">
-        <v>12.53652620078088</v>
+        <v>12.16463622709331</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.65496126559323</v>
       </c>
       <c r="M20">
-        <v>11.42292392879169</v>
+        <v>7.501198513526426</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.28366909721439</v>
+        <v>11.39015750108582</v>
       </c>
       <c r="P20">
-        <v>11.63961895378666</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.92557544827007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.27727924418873</v>
+      </c>
+      <c r="R20">
+        <v>11.62258712382441</v>
+      </c>
+      <c r="S20">
+        <v>12.62259101807628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.84020085600305</v>
+        <v>12.44704349319845</v>
       </c>
       <c r="C21">
-        <v>8.664218265865173</v>
+        <v>8.898343848902059</v>
       </c>
       <c r="D21">
-        <v>6.276486618448707</v>
+        <v>6.451111164730951</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.35281294468139</v>
+        <v>16.62127094540953</v>
       </c>
       <c r="G21">
-        <v>20.45566650840376</v>
+        <v>21.29300752095235</v>
       </c>
       <c r="H21">
-        <v>3.027645761167404</v>
+        <v>3.019137803415453</v>
       </c>
       <c r="I21">
-        <v>3.403431118712749</v>
+        <v>3.372737320616863</v>
       </c>
       <c r="J21">
-        <v>8.056857689275553</v>
+        <v>7.783637460253476</v>
       </c>
       <c r="K21">
-        <v>12.53519449678328</v>
+        <v>12.0211615676041</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.44139305750536</v>
       </c>
       <c r="M21">
-        <v>11.88378956895982</v>
+        <v>7.622542420768004</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.00207363484421</v>
+        <v>11.78716508045014</v>
       </c>
       <c r="P21">
-        <v>11.47088338371424</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.06782417720791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35.9892722887493</v>
+      </c>
+      <c r="R21">
+        <v>11.45862250563642</v>
+      </c>
+      <c r="S21">
+        <v>12.55118512762073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.26689718199571</v>
+        <v>12.81148109657548</v>
       </c>
       <c r="C22">
-        <v>8.822214287850921</v>
+        <v>9.050900806239442</v>
       </c>
       <c r="D22">
-        <v>6.445206738370676</v>
+        <v>6.665353828598761</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.67576761158348</v>
+        <v>16.74099726751067</v>
       </c>
       <c r="G22">
-        <v>20.85263994663071</v>
+        <v>22.97271765362924</v>
       </c>
       <c r="H22">
-        <v>3.217768758655185</v>
+        <v>3.206530052312776</v>
       </c>
       <c r="I22">
-        <v>3.492611869317658</v>
+        <v>3.446364764028151</v>
       </c>
       <c r="J22">
-        <v>8.059979160996861</v>
+        <v>7.432999575259262</v>
       </c>
       <c r="K22">
-        <v>12.53339487042375</v>
+        <v>11.91941583798871</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.30109727623581</v>
       </c>
       <c r="M22">
-        <v>12.19903169975916</v>
+        <v>7.703750660584177</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.26981235809878</v>
+        <v>12.05901619787978</v>
       </c>
       <c r="P22">
-        <v>11.36271357594817</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.15697149454656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.25293049956981</v>
+      </c>
+      <c r="R22">
+        <v>11.35523502008782</v>
+      </c>
+      <c r="S22">
+        <v>12.48957906555564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.05387940686284</v>
+        <v>12.63622369602914</v>
       </c>
       <c r="C23">
-        <v>8.721110515299143</v>
+        <v>8.960099259656211</v>
       </c>
       <c r="D23">
-        <v>6.35198344065395</v>
+        <v>6.542186529127927</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.52103369142027</v>
+        <v>16.72076201258735</v>
       </c>
       <c r="G23">
-        <v>20.67206238144563</v>
+        <v>21.89964764220016</v>
       </c>
       <c r="H23">
-        <v>3.116728031614215</v>
+        <v>3.107094356463861</v>
       </c>
       <c r="I23">
-        <v>3.441829739969099</v>
+        <v>3.403240548592538</v>
       </c>
       <c r="J23">
-        <v>8.063240835843196</v>
+        <v>7.667918702817275</v>
       </c>
       <c r="K23">
-        <v>12.54908004520218</v>
+        <v>11.99873748516475</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.39069105302853</v>
       </c>
       <c r="M23">
-        <v>12.03159722275912</v>
+        <v>7.683506251430257</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.59813860580721</v>
+        <v>11.92115883868445</v>
       </c>
       <c r="P23">
-        <v>11.42128459771588</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.12215654922875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.58365597744154</v>
+      </c>
+      <c r="R23">
+        <v>11.41088379711802</v>
+      </c>
+      <c r="S23">
+        <v>12.5541723391485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.18692093582388</v>
+        <v>11.89072530809446</v>
       </c>
       <c r="C24">
-        <v>8.3580365684659</v>
+        <v>8.587046343428092</v>
       </c>
       <c r="D24">
-        <v>5.991942201712043</v>
+        <v>6.098223293804192</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.91150850695867</v>
+        <v>16.47400087048369</v>
       </c>
       <c r="G24">
-        <v>19.94765810858284</v>
+        <v>18.97837330237876</v>
       </c>
       <c r="H24">
-        <v>2.727935107522275</v>
+        <v>2.72368230550516</v>
       </c>
       <c r="I24">
-        <v>3.251340081278234</v>
+        <v>3.241338429464651</v>
       </c>
       <c r="J24">
-        <v>8.072981226690169</v>
+        <v>8.417072928657904</v>
       </c>
       <c r="K24">
-        <v>12.59265643211707</v>
+        <v>12.21621238225382</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.69197159311096</v>
       </c>
       <c r="M24">
-        <v>11.37355288651419</v>
+        <v>7.543684246092972</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.95060201127043</v>
+        <v>11.34119850809343</v>
       </c>
       <c r="P24">
-        <v>11.64296524493519</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.98069418434888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>33.94416972964057</v>
+      </c>
+      <c r="R24">
+        <v>11.62312990381629</v>
+      </c>
+      <c r="S24">
+        <v>12.67594610937205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.16738021953305</v>
+        <v>10.95556735002728</v>
       </c>
       <c r="C25">
-        <v>7.950087810499526</v>
+        <v>8.056081776517621</v>
       </c>
       <c r="D25">
-        <v>5.5762616299938</v>
+        <v>5.652671206865509</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.26803416125557</v>
+        <v>15.93388366812607</v>
       </c>
       <c r="G25">
-        <v>19.19171363675779</v>
+        <v>18.13401646873829</v>
       </c>
       <c r="H25">
-        <v>2.294967687525884</v>
+        <v>2.294599059542047</v>
       </c>
       <c r="I25">
-        <v>3.039267183499452</v>
+        <v>3.052721090064767</v>
       </c>
       <c r="J25">
-        <v>8.09540300441229</v>
+        <v>8.496105448258694</v>
       </c>
       <c r="K25">
-        <v>12.65766756672306</v>
+        <v>12.34052692157666</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.95543534916299</v>
       </c>
       <c r="M25">
-        <v>10.61281270191193</v>
+        <v>7.342558231439313</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.87172283774374</v>
+        <v>10.59187411114558</v>
       </c>
       <c r="P25">
-        <v>11.88524530679219</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.8529244109599</v>
+        <v>30.87115743026136</v>
+      </c>
+      <c r="R25">
+        <v>11.85233334357998</v>
+      </c>
+      <c r="S25">
+        <v>12.6186333186104</v>
       </c>
     </row>
   </sheetData>
